--- a/Results/iRhto_results/iRhto_all_cofactor_fluxes.xlsx
+++ b/Results/iRhto_results/iRhto_all_cofactor_fluxes.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GND_c</t>
+          <t>G6PDH2i_c</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4413248828972794</v>
+        <v>0.4483724867146743</v>
       </c>
     </row>
     <row r="3">
@@ -474,11 +474,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G6PDH2i_c</t>
+          <t>GND_c</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4413248828972794</v>
+        <v>0.4483724867146743</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06338314997289905</v>
+        <v>0.06439532795564716</v>
       </c>
     </row>
     <row r="5">
@@ -504,150 +504,150 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01950866567480943</v>
+        <v>0.0198202033922829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.004828340350826948</v>
+        <v>0.004190347979686686</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NADPHt_c_rm</t>
+          <t>MTHFD_m</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.008698633344968116</v>
+        <v>0.007669795414075962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004190347979686686</v>
+        <v>0.003484545085204653</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MTHFD_m</t>
+          <t>C3STDH2_c</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.007549240114541543</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003896337046385768</v>
+        <v>0.002632424657674568</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NADPHt_c_r</t>
+          <t>PPND2_c</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.007019556388381158</v>
+        <v>0.00481825343985931</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003484545085204653</v>
+        <v>8.800501192824761e-05</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C3STDH2_c</t>
+          <t>GLYCDy_c</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.006277680914729766</v>
+        <v>0.000161079805346725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002632424657674568</v>
+        <v>3.397202996191506e-06</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PPND2_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.004742519218108239</v>
+        <v>6.218064009763441e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.800501192824761e-05</v>
+        <v>3.397202996173044e-06</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GLYCDy_c</t>
+          <t>SSALy_c</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001585479224040742</v>
+        <v>6.218064009729649e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.397202996191506e-06</v>
+        <v>-3.397202996168955e-06</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>DPR_c</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.120327299883868e-06</v>
+        <v>6.218064009722164e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.397202996173044e-06</v>
+        <v>-6.794405992177014e-06</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SSALy_c</t>
+          <t>KYN3OX_c</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.120327299850607e-06</v>
+        <v>1.243612801914983e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.39720299620018e-06</v>
+        <v>-6.794405992346336e-06</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DPR_c</t>
+          <t>DRAPPRy_c</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.120327299899494e-06</v>
+        <v>1.243612801945975e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.794405992340512e-06</v>
+        <v>-0.0001372639870603718</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KYN3OX_c</t>
+          <t>PSPHS_r</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.224065459969117e-05</v>
+        <v>0.0002512408763131264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.794405992346348e-06</v>
+        <v>-0.0001372639870603718</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DRAPPRy_c</t>
+          <t>ECOAR260_rm</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.224065459970168e-05</v>
+        <v>0.0002512408763131264</v>
       </c>
     </row>
     <row r="17">
@@ -656,89 +656,89 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOAR260_rm</t>
+          <t>3OACR260_rm</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0002472918245504637</v>
+        <v>0.0002512408763131264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0001372639870603718</v>
+        <v>-0.0002444287555746502</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3OACR260_rm</t>
+          <t>DHFRi_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0002472918245504637</v>
+        <v>0.0004473897055000477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0001372639870603718</v>
+        <v>-0.0002745279741207436</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PSPHS_r</t>
+          <t>3DSPHR_r</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0002472918245504637</v>
+        <v>0.0005024817526262528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0002444287555746524</v>
+        <v>-0.0006609353594902188</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DHFRi_c</t>
+          <t>ECOAR240_rm</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0004403575492242546</v>
+        <v>0.001209741771755613</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0002745279741207436</v>
+        <v>-0.0006609353594902188</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3DSPHR_r</t>
+          <t>3OACR240_rm</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0004945836491009275</v>
+        <v>0.001209741771755613</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.0006609353594902188</v>
+        <v>-0.0008079854144314416</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOAR240_rm</t>
+          <t>3OACR200_rm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001190726821058801</v>
+        <v>0.001478894558706767</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.0006609353594902188</v>
+        <v>-0.0008079854144314416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3OACR240_rm</t>
+          <t>3OACR220_rm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001190726821058801</v>
+        <v>0.001478894558706767</v>
       </c>
     </row>
     <row r="24">
@@ -747,11 +747,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3OACR220_rm</t>
+          <t>ECOAR220_rm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001455649013437397</v>
+        <v>0.001478894558706767</v>
       </c>
     </row>
     <row r="25">
@@ -760,50 +760,50 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3OACR200_rm</t>
+          <t>ECOAR200_rm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001455649013437397</v>
+        <v>0.001478894558706767</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.0008079854144314416</v>
+        <v>-0.002963821809951244</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOAR200_rm</t>
+          <t>TRDR_c</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001455649013437397</v>
+        <v>0.005424825584008428</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.0008079854144314416</v>
+        <v>-0.003484545085204653</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOAR220_rm</t>
+          <t>SQLEy_r</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.001455649013437397</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.002963821809951287</v>
+        <v>-0.003484545085204653</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRDR_c</t>
+          <t>C4STMO2_c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.005339557146208733</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="29">
@@ -812,505 +812,453 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SQLEy_r</t>
+          <t>SQLS_c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.006277680914729766</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.003484545085204665</v>
+        <v>-0.003484545085204653</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C3STKR2_c</t>
+          <t>C4STMO3_c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.006277680914729787</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.003484545085204665</v>
+        <v>-0.003484545085204653</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C3STKR1_c</t>
+          <t>C14STR_c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.006277680914729787</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.003484545085204665</v>
+        <v>-0.003484545085204653</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SQLS_c</t>
+          <t>C3STKR1_c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006277680914729787</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.003484545085204665</v>
+        <v>-0.003484545085204653</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C4STMO1_c</t>
+          <t>C3STKR2_c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.006277680914729787</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.003484545085204665</v>
+        <v>-0.003484545085204653</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C4STMO2_c</t>
+          <t>C4STMO1_c</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006277680914729787</v>
+        <v>0.006377930435419797</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.003484545085204665</v>
+        <v>-0.005188038555605649</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C4STMO3_c</t>
+          <t>SO3R_c</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.006277680914729787</v>
+        <v>0.009495916452458605</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.003484545085204665</v>
+        <v>-0.006820065134520241</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C14STR_c</t>
+          <t>3OAR180_c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.006277680914729787</v>
+        <v>0.01248309318128606</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.003896337046385782</v>
+        <v>-0.006820065134520241</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NADPHt_c_r</t>
+          <t>EAR180y_c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.007019556388381182</v>
+        <v>0.01248309318128606</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.004828340350826965</v>
+        <v>-0.007910726896888551</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NADPHt_c_rm</t>
+          <t>KARA2i_m</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.008698633344968147</v>
+        <v>0.01447938385305646</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.005188038555605766</v>
+        <v>-0.008565605718460658</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SO3R_c</t>
+          <t>SHK3Di_c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.009346657835967038</v>
+        <v>0.01567804005221173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.006820065134520266</v>
+        <v>-0.008823996978349749</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EAR180y_c</t>
+          <t>AASADy_c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01228688155420357</v>
+        <v>0.01615098600079208</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.006820065134520266</v>
+        <v>-0.008823996978349749</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3OAR180_c</t>
+          <t>SACCD1_c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01228688155420357</v>
+        <v>0.01615098600079208</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.007910726896888551</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KARA2i_m</t>
+          <t>EAR120y_c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01425179415043213</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.008565605718460854</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SHK3Di_c</t>
+          <t>3OAR100_c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01543160964402437</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.00882399697834978</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AASADy_c</t>
+          <t>3OAR80_c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01589712173845102</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.00882399697834978</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SACCD1_c</t>
+          <t>EAR100y_c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01589712173845102</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.009003946821057063</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3OAR40_c</t>
+          <t>EAR40y_c</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0162213154755241</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.009003946821057063</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EAR60y_c</t>
+          <t>3OAR120_c</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0162213154755241</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.009003946821057063</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EAR40y_c</t>
+          <t>EAR60y_c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0162213154755241</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.009003946821057063</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3OAR80_c</t>
+          <t>EAR140y_c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0162213154755241</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.009003946821057063</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3OAR60_c</t>
+          <t>EAR160y_c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0162213154755241</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3OAR140_c</t>
+          <t>3OAR60_c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EAR160y_c</t>
+          <t>3OAR40_c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3OAR100_c</t>
+          <t>3OAR160_c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EAR120y_c</t>
+          <t>3OAR140_c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.009003946821057034</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3OAR160_c</t>
+          <t>EAR80y_c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.01648035685138746</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.009214539434789802</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3OAR120_c</t>
+          <t>MTHFR3_c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.0168658146393506</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.01045363525561396</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EAR80y_c</t>
+          <t>LNS14DMy_c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.01913379130625939</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.01045363525561396</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EAR100y_c</t>
+          <t>C4STMO4_c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.01913379130625939</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.009003946821057067</v>
+        <v>-0.01085545642600131</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EAR140y_c</t>
+          <t>AGPRi_m</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01622131547552411</v>
+        <v>0.01986926391733022</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.009214539434789835</v>
+        <v>-0.01692958743909878</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MTHFR3_c</t>
+          <t>ASAD_c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.01660071456484185</v>
+        <v>0.03098703800544663</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.01045363525561399</v>
+        <v>-0.02060617640967709</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LNS14DMy_c</t>
+          <t>KARA1i_m</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.01883304274418936</v>
+        <v>0.03771647559933643</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.01045363525561399</v>
+        <v>-0.06079498593831432</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C4STMO4_c</t>
+          <t>HMGCOAR_c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.01883304274418936</v>
+        <v>0.1112759862925179</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.01085545642600131</v>
+        <v>-0.191686669478603</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AGPRi_m</t>
+          <t>GLUDy_c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.01955695505721563</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>-0.01692958743909884</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ASAD_c</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.03049997786280262</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>-0.02060617640967709</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>KARA1i_m</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0.03712364087979283</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>-0.06079498593831454</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>HMGCOAR_c</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0.1095269292272069</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>-0.1916866694754983</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>GLUDy_c</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.3453385498393614</v>
+        <v>0.3508533290393728</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,11 +1303,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GND_c</t>
+          <t>G6PDH2i_c</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4413248829072038</v>
+        <v>0.4483724867247573</v>
       </c>
     </row>
     <row r="3">
@@ -1368,11 +1316,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G6PDH2i_c</t>
+          <t>GND_c</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4413248829072038</v>
+        <v>0.4483724867247573</v>
       </c>
     </row>
     <row r="4">
@@ -1385,7 +1333,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06338314995306342</v>
+        <v>0.06439532793549478</v>
       </c>
     </row>
     <row r="5">
@@ -1398,150 +1346,150 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01950866567480044</v>
+        <v>0.01982020339227378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0333391459856156</v>
+        <v>0.02893388056235328</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NADPHt_c_rm</t>
+          <t>MTHFD_m</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.008698633344968275</v>
+        <v>0.007669795414071385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02893388056235328</v>
+        <v>0.02406039111745727</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MTHFD_m</t>
+          <t>C3STDH2_c</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.007549240114537037</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02690376820191836</v>
+        <v>0.01817659559631406</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NADPHt_c_r</t>
+          <t>PPND2_c</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.007019556388381285</v>
+        <v>0.004818253439859399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02406039111745727</v>
+        <v>0.0006076646895116209</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C3STDH2_c</t>
+          <t>GLYCDy_c</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.000161079805346728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01817659559631406</v>
+        <v>2.345730383583788e-05</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PPND2_c</t>
+          <t>SSALy_c</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.004742519218108325</v>
+        <v>6.218064009729763e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0006076646895116209</v>
+        <v>2.345730383579436e-05</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GLYCDy_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001585479224040771</v>
+        <v>6.218064009718227e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.345730383583788e-05</v>
+        <v>-2.34573038357111e-05</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SSALy_c</t>
+          <t>DPR_c</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.120327299850719e-06</v>
+        <v>6.218064009696154e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.345730383579436e-05</v>
+        <v>-4.691460767167577e-05</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>DRAPPRy_c</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.120327299839364e-06</v>
+        <v>1.243612801945953e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-4.69146076720146e-05</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DPR_c</t>
+          <t>KYN3OX_c</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.120327299817638e-06</v>
+        <v>1.243612801954935e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.691460767167577e-05</v>
+        <v>-0.0009477923614870296</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DRAPPRy_c</t>
+          <t>3OACR260_rm</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.224065459970144e-05</v>
+        <v>0.0002512408763131311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.69146076720146e-05</v>
+        <v>-0.0009477923614870296</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KYN3OX_c</t>
+          <t>PSPHS_r</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.224065459978984e-05</v>
+        <v>0.0002512408763131311</v>
       </c>
     </row>
     <row r="17">
@@ -1550,89 +1498,89 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3OACR260_rm</t>
+          <t>ECOAR260_rm</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0002472918245504683</v>
+        <v>0.0002512408763131311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0009477923614870296</v>
+        <v>-0.00168775301098853</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOAR260_rm</t>
+          <t>DHFRi_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0002472918245504683</v>
+        <v>0.0004473897055000549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0009477923614870296</v>
+        <v>-0.001895584722974059</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PSPHS_r</t>
+          <t>3DSPHR_r</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0002472918245504683</v>
+        <v>0.0005024817526262621</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.00168775301098853</v>
+        <v>-0.004563684172207495</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DHFRi_c</t>
+          <t>3OACR240_rm</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0004403575492242577</v>
+        <v>0.001209741771755636</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.001895584722974059</v>
+        <v>-0.004563684172207495</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3DSPHR_r</t>
+          <t>ECOAR240_rm</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0004945836491009366</v>
+        <v>0.001209741771755636</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.004563684172207495</v>
+        <v>-0.005579048229556635</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOAR240_rm</t>
+          <t>ECOAR220_rm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001190726821058822</v>
+        <v>0.001478894558706795</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.004563684172207495</v>
+        <v>-0.005579048229556635</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3OACR240_rm</t>
+          <t>3OACR220_rm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001190726821058822</v>
+        <v>0.001478894558706795</v>
       </c>
     </row>
     <row r="24">
@@ -1641,11 +1589,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOAR220_rm</t>
+          <t>3OACR200_rm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001455649013437423</v>
+        <v>0.001478894558706795</v>
       </c>
     </row>
     <row r="25">
@@ -1654,50 +1602,50 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3OACR200_rm</t>
+          <t>ECOAR200_rm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001455649013437423</v>
+        <v>0.001478894558706795</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.005579048229556635</v>
+        <v>-0.02046485558549991</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3OACR220_rm</t>
+          <t>TRDR_c</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001455649013437423</v>
+        <v>0.005424825584008502</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.005579048229556635</v>
+        <v>-0.02406039111745727</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOAR200_rm</t>
+          <t>C4STMO3_c</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.001455649013437423</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.02046485558549991</v>
+        <v>-0.02406039111745727</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRDR_c</t>
+          <t>SQLS_c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.005339557146208727</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="29">
@@ -1710,7 +1658,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="30">
@@ -1719,11 +1667,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C3STKR1_c</t>
+          <t>SQLEy_r</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="31">
@@ -1736,7 +1684,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="32">
@@ -1745,11 +1693,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SQLS_c</t>
+          <t>C3STKR1_c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="33">
@@ -1758,11 +1706,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C4STMO2_c</t>
+          <t>C14STR_c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="34">
@@ -1771,154 +1719,154 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C4STMO3_c</t>
+          <t>C4STMO2_c</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.006377930435419915</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.03582282155289943</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SQLEy_r</t>
+          <t>SO3R_c</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.009495916452458703</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.04709178115669392</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C14STR_c</t>
+          <t>EAR180y_c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.00627768091472988</v>
+        <v>0.01248309318128629</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.02690376820191836</v>
+        <v>-0.04709178115669392</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NADPHt_c_r</t>
+          <t>3OAR180_c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.007019556388381285</v>
+        <v>0.01248309318128629</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.0333391459856156</v>
+        <v>-0.05462267771213209</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NADPHt_c_rm</t>
+          <t>KARA2i_m</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.008698633344968275</v>
+        <v>0.01447938385305673</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.03582282155289943</v>
+        <v>-0.05914454217256689</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SO3R_c</t>
+          <t>SHK3Di_c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.009346657835966922</v>
+        <v>0.01567804005221242</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.04709178115669392</v>
+        <v>-0.06092870470232039</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EAR180y_c</t>
+          <t>SACCD1_c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01228688155420376</v>
+        <v>0.01615098600079238</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.04709178115669392</v>
+        <v>-0.06092870470232039</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3OAR180_c</t>
+          <t>AASADy_c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01228688155420376</v>
+        <v>0.01615098600079238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.05462267771213209</v>
+        <v>-0.06217123808650471</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KARA2i_m</t>
+          <t>3OAR40_c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01425179415043238</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.05914454217256689</v>
+        <v>-0.06217123808650471</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SHK3Di_c</t>
+          <t>3OAR60_c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01543160964402469</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.06092870470232039</v>
+        <v>-0.06217123808650471</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AASADy_c</t>
+          <t>3OAR80_c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01589712173845125</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.06092870470232039</v>
+        <v>-0.06217123808650471</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SACCD1_c</t>
+          <t>EAR60y_c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01589712173845125</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="46">
@@ -1927,63 +1875,63 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3OAR40_c</t>
+          <t>EAR40y_c</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.06217123808650472</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EAR60y_c</t>
+          <t>EAR120y_c</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.06217123808650472</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EAR40y_c</t>
+          <t>3OAR100_c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.06217123808650472</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3OAR80_c</t>
+          <t>3OAR120_c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.06217123808650472</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3OAR60_c</t>
+          <t>3OAR140_c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="51">
@@ -1992,11 +1940,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3OAR140_c</t>
+          <t>3OAR160_c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="52">
@@ -2005,11 +1953,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EAR160y_c</t>
+          <t>EAR140y_c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="53">
@@ -2018,11 +1966,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3OAR100_c</t>
+          <t>EAR100y_c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="54">
@@ -2031,11 +1979,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EAR120y_c</t>
+          <t>EAR80y_c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="55">
@@ -2044,167 +1992,115 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3OAR160_c</t>
+          <t>EAR160y_c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01648035685138776</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.06362535635128831</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3OAR120_c</t>
+          <t>MTHFR3_c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01686581463935091</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07218117335237181</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EAR80y_c</t>
+          <t>LNS14DMy_c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01913379130625974</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07218117335237181</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EAR100y_c</t>
+          <t>C4STMO4_c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01913379130625974</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07495570317402889</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EAR140y_c</t>
+          <t>AGPRi_m</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01622131547552434</v>
+        <v>0.01986926389717234</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.06362535635128831</v>
+        <v>-0.1168968933624761</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MTHFR3_c</t>
+          <t>ASAD_c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.01660071456484209</v>
+        <v>0.0309870380054472</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.07218117335237181</v>
+        <v>-0.1422833258657732</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LNS14DMy_c</t>
+          <t>KARA1i_m</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.01883304274418964</v>
+        <v>0.03771647559933711</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.07218117335237181</v>
+        <v>-0.4197825265246204</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C4STMO4_c</t>
+          <t>HMGCOAR_c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.01883304274418964</v>
+        <v>0.11127598629252</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.07495570317402889</v>
+        <v>-1.32357485026538</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AGPRi_m</t>
+          <t>GLUDy_c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0195569550373746</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>-0.1168968933624761</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ASAD_c</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.03049997786280307</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>-0.1422833258657732</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>KARA1i_m</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0.03712364087979347</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>-0.4197825265246204</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>HMGCOAR_c</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0.1095269292272085</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>-1.32357485026538</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>GLUDy_c</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.3453385498251009</v>
+        <v>0.350853329019202</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2253,7 +2149,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3375422105574204</v>
+        <v>0.3385909461435276</v>
       </c>
     </row>
     <row r="3">
@@ -2266,7 +2162,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2382047596298101</v>
+        <v>0.2389448561285305</v>
       </c>
     </row>
     <row r="4">
@@ -2279,7 +2175,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1766471595996904</v>
+        <v>0.1771959981054022</v>
       </c>
     </row>
     <row r="5">
@@ -2292,7 +2188,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.100456726472909</v>
+        <v>0.1007688431226815</v>
       </c>
     </row>
     <row r="6">
@@ -2305,7 +2201,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09869675700663542</v>
+        <v>0.09900340547331253</v>
       </c>
     </row>
     <row r="7">
@@ -2318,7 +2214,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01744679826870162</v>
+        <v>0.01750100505421092</v>
       </c>
     </row>
     <row r="8">
@@ -2331,7 +2227,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01078961334375702</v>
+        <v>0.01082313641470939</v>
       </c>
     </row>
     <row r="9">
@@ -2344,20 +2240,20 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.003578049053340348</v>
+        <v>0.003589165966288446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.009312727784358621</v>
+        <v>0.008823996978349749</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NADHt_c_rm</t>
+          <t>SACCD2_c</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.003097352714394899</v>
+        <v>0.002943922391810037</v>
       </c>
     </row>
     <row r="11">
@@ -2366,102 +2262,102 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SACCD2_c</t>
+          <t>HICITD_m</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.002934804025798796</v>
+        <v>0.002943922391810037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.008823996978349749</v>
+        <v>0.00771226229784907</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HICITD_m</t>
+          <t>FDH_c</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.002934804025798796</v>
+        <v>0.002573017842804875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.00771226229784907</v>
+        <v>0.005184267660279912</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FDH_c</t>
+          <t>HISTD_c</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.002565048299005277</v>
+        <v>0.001729610933421801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.005184267660279912</v>
+        <v>0.004193745182682855</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HISTD_c</t>
+          <t>GLYCL_m</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.00172425371830232</v>
+        <v>0.001399146030890241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.004193745182682855</v>
+        <v>0.003484545085204653</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GLYCL_m</t>
+          <t>C3STDH1_c</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001394812382133628</v>
+        <v>0.001162537830279728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.003484545085204653</v>
+        <v>0.002485869320419663</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C3STDH1_c</t>
+          <t>IMPD_c</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001158937040575524</v>
+        <v>0.0008293527721567382</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.002485869320419663</v>
+        <v>3.397202996168955e-06</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IMPD_c</t>
+          <t>ALDD22x_c</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0008267839740967075</v>
+        <v>1.133398163494875e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.397202996168955e-06</v>
+        <v>-3.397202996173044e-06</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALDD22x_c</t>
+          <t>AHMMPS4_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.129887629616684e-06</v>
+        <v>1.133398163496239e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2470,154 +2366,128 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AHMMPS4_c</t>
+          <t>THZPSN2_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.129887629618044e-06</v>
+        <v>1.133398163496239e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-3.397202996191506e-06</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>THZPSN2_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.129887629618044e-06</v>
+        <v>1.133398163502399e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.397202996191506e-06</v>
+        <v>-6.794405992346088e-06</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>HOMOX_m</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.129887629624184e-06</v>
+        <v>2.266796326992479e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-6.794405992346088e-06</v>
+        <v>-0.0006917125208087456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HOMOX_m</t>
+          <t>ACOADS182_rm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.259775259236088e-06</v>
+        <v>0.0002307738753424944</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.0006917125208087456</v>
+        <v>-0.00349605898479761</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ACOADS182_rm</t>
+          <t>ACOADS181_rm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0002300590872532909</v>
+        <v>0.001166379176430675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.00349605898479761</v>
+        <v>-0.003757391912154675</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ACOADS181_rm</t>
+          <t>G3PD1r_c</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001162766488722544</v>
+        <v>0.001253566860022518</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.003757391912154675</v>
+        <v>-0.005124956278752266</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>G3PD1r_c</t>
+          <t>ACOADS180_rm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001249684121305951</v>
+        <v>0.001709823063526012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.005124956278752266</v>
+        <v>-0.01692958743909878</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ACOADS180_rm</t>
+          <t>HSDx_c</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001704527138419064</v>
+        <v>0.005648165073985524</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.009312727784358621</v>
+        <v>-0.7570872037289355</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NADHt_c_rm</t>
+          <t>MDH_c</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.003097352714394899</v>
+        <v>0.2525846254343673</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.01692958743909878</v>
+        <v>-2.210256700294507</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HSDx_c</t>
+          <t>NADHcplxI_c_m</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.005630670714562264</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>-0.7570872037289355</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MDH_c</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.2518022817591637</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>-2.210256700294507</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>NADHcplxI_c_m</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.73511700853803</v>
+        <v>0.737400999525508</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2666,7 +2536,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3380514377410102</v>
+        <v>0.3392292749712327</v>
       </c>
     </row>
     <row r="3">
@@ -2679,7 +2549,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2468600706453344</v>
+        <v>0.2477201793430061</v>
       </c>
     </row>
     <row r="4">
@@ -2692,7 +2562,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1778546878801295</v>
+        <v>0.1784743683475598</v>
       </c>
     </row>
     <row r="5">
@@ -2705,7 +2575,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0924460624929216</v>
+        <v>0.09276816262927738</v>
       </c>
     </row>
     <row r="6">
@@ -2718,7 +2588,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09047315635511612</v>
+        <v>0.09078838250118103</v>
       </c>
     </row>
     <row r="7">
@@ -2731,7 +2601,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01955766618122875</v>
+        <v>0.01962580890979826</v>
       </c>
     </row>
     <row r="8">
@@ -2744,7 +2614,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01209503616629255</v>
+        <v>0.01213717763444528</v>
       </c>
     </row>
     <row r="9">
@@ -2757,20 +2627,20 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.004010953064408677</v>
+        <v>0.004024928008220497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06430333583958202</v>
+        <v>0.06092870470232039</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NADHt_c_rm</t>
+          <t>SACCD2_c</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.003472097832129701</v>
+        <v>0.003301345159325919</v>
       </c>
     </row>
     <row r="11">
@@ -2779,115 +2649,115 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SACCD2_c</t>
+          <t>HICITD_m</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.003289882565955111</v>
+        <v>0.003301345159325919</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.06092870470232039</v>
+        <v>0.05325230202200498</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HICITD_m</t>
+          <t>FDH_c</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.003289882565955111</v>
+        <v>0.002885408944146038</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.05325230202200498</v>
+        <v>0.03579678394564204</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FDH_c</t>
+          <t>HISTD_c</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.002875390522006261</v>
+        <v>0.00193960367245228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03579678394564204</v>
+        <v>0.02895733786618899</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HISTD_c</t>
+          <t>GLYCL_m</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001932869178745967</v>
+        <v>0.001569016897020419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02895733786618899</v>
+        <v>0.02406039111745727</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GLYCL_m</t>
+          <t>C3STDH1_c</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0015635691168537</v>
+        <v>0.001303682002353168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02406039111745727</v>
+        <v>0.01716464750883601</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C3STDH1_c</t>
+          <t>IMPD_c</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001299155490899011</v>
+        <v>0.000930044816177971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01716464750883601</v>
+        <v>2.345730383571109e-05</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IMPD_c</t>
+          <t>ALDD22x_c</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.000926815609587936</v>
+        <v>1.271004477236374e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.345730383571109e-05</v>
+        <v>-2.345730383579436e-05</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALDD22x_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.266591425346334e-06</v>
+        <v>1.271004477240886e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.345730383579436e-05</v>
+        <v>-2.345730383583788e-05</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>AHMMPS4_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.266591425350831e-06</v>
+        <v>1.271004477243244e-06</v>
       </c>
     </row>
     <row r="20">
@@ -2896,141 +2766,115 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AHMMPS4_c</t>
+          <t>THZPSN2_c</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.266591425353181e-06</v>
+        <v>1.271004477243244e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-4.691460767167577e-05</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>THZPSN2_c</t>
+          <t>HOMOX_m</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.266591425353181e-06</v>
+        <v>2.542008954486488e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-4.691460767167577e-05</v>
+        <v>-0.004776197002634925</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HOMOX_m</t>
+          <t>ACOADS182_rm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.533182850706361e-06</v>
+        <v>0.000258792221690465</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.004776197002634925</v>
+        <v>-0.02413989329657096</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ACOADS182_rm</t>
+          <t>ACOADS181_rm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0002578936697785615</v>
+        <v>0.001307989727840771</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.02413989329657096</v>
+        <v>-0.02594436770867683</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ACOADS181_rm</t>
+          <t>G3PD1r_c</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001303448259542287</v>
+        <v>0.001405762902153901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.02594436770867683</v>
+        <v>-0.03538724554037613</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>G3PD1r_c</t>
+          <t>ACOADS180_rm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001400881955828844</v>
+        <v>0.001917413349543098</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.03538724554037613</v>
+        <v>-0.1168968933624761</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ACOADS180_rm</t>
+          <t>HSDx_c</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001910755902808853</v>
+        <v>0.006333911001849209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.06430333583958202</v>
+        <v>-4.854149107716916</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NADHt_c_rm</t>
+          <t>MDH_c</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.003472097832129701</v>
+        <v>0.2630159583680953</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.1168968933624761</v>
+        <v>-13.39430986257966</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HSDx_c</t>
+          <t>NADHcplxI_c_m</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.006311919043190786</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>-4.854149107716916</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MDH_c</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.2621027412292299</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>-13.39430986257966</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>NADHcplxI_c_m</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7232339291503641</v>
+        <v>0.725753817406441</v>
       </c>
     </row>
   </sheetData>
@@ -3044,7 +2888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3071,132 +2915,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.42865680396921</v>
+        <v>7.14091007769296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADPATPt_c_m</t>
+          <t>ATPS_m</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4571179705484212</v>
+        <v>0.8094115169771332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.14091007769296</v>
+        <v>0.7162038966570764</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATPS_m</t>
+          <t>PGK_c</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4394116471822548</v>
+        <v>0.08118064450482831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7162038966570764</v>
+        <v>0.6666318425928657</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PGK_c</t>
+          <t>PYK_c</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.04407118007710711</v>
+        <v>0.07556172604160236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6666318425928657</v>
+        <v>0.294411834722564</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PYK_c</t>
+          <t>SUCOAS_m</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04102079326456234</v>
+        <v>0.03337114277677616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.294411834722564</v>
+        <v>0.004190347979686686</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SUCOAS_m</t>
+          <t>FTHFL_m</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01811645684343739</v>
+        <v>0.0004749696996599123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004190347979686686</v>
+        <v>-9.859508432137099e-07</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FTHFL_m</t>
+          <t>FACOAL181_l</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0002578505663826861</v>
+        <v>1.117560589599692e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.189397828529529e-05</v>
+        <v>-1.81808319779603e-06</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATPt_c_rm</t>
+          <t>FACOAL220_rm</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.808609078269044e-06</v>
+        <v>2.060770214311605e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.760081124389619e-06</v>
+        <v>-3.397202996168955e-06</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATPt_c_l</t>
+          <t>PBAL_c</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.929087560034021e-07</v>
+        <v>3.850678976056708e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-9.859508432137099e-07</v>
+        <v>-3.397202996168955e-06</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FACOAL181_l</t>
+          <t>DPCOAK_c</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.066989772222943e-08</v>
+        <v>3.850678976056708e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.81808319779603e-06</v>
+        <v>-3.397202996168955e-06</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FACOAL220_rm</t>
+          <t>PTPAT_c</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.118746663893062e-07</v>
+        <v>3.850678976056708e-07</v>
       </c>
     </row>
     <row r="12">
@@ -3205,1168 +3049,1090 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DPCOAK_c</t>
+          <t>PNTK_c</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.090448623659698e-07</v>
+        <v>3.850678976056708e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-3.397202996168955e-06</v>
+        <v>-3.397202996172804e-06</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PBAL_c</t>
+          <t>DHFS_1_c</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.090448623659698e-07</v>
+        <v>3.850678976061071e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.397202996168955e-06</v>
+        <v>-3.397202996173044e-06</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTPAT_c</t>
+          <t>HMPK1_c</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.090448623659698e-07</v>
+        <v>3.850678976061343e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.397202996168955e-06</v>
+        <v>-3.397202996173044e-06</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PNTK_c</t>
+          <t>PMPK_c</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.090448623659698e-07</v>
+        <v>3.850678976061343e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.397202996172804e-06</v>
+        <v>-3.397202996173044e-06</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DHFS_1_c</t>
+          <t>TMPK_c</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.090448623662067e-07</v>
+        <v>3.850678976061343e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-3.397202996191506e-06</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PMPK_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.090448623662215e-07</v>
+        <v>3.85067897608227e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-3.397202996247017e-06</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TMPK_c</t>
+          <t>AFAT_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.090448623662215e-07</v>
+        <v>3.850678976145191e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-3.397202996247017e-06</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HMPK1_c</t>
+          <t>RBFK_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.090448623662215e-07</v>
+        <v>3.850678976145191e-07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.397202996191506e-06</v>
+        <v>-3.684878760093603e-06</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>FACOAL182_l</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.090448623673575e-07</v>
+        <v>4.176755167946009e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.397202996247017e-06</v>
+        <v>-4.311736412629403e-06</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AFAT_c</t>
+          <t>FACOAL183_rm</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.090448623707734e-07</v>
+        <v>4.887288976588576e-07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-3.397202996247017e-06</v>
+        <v>-6.794405992177014e-06</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RBFK_c</t>
+          <t>NNATi_c</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.090448623707734e-07</v>
+        <v>7.701357951931044e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-3.684878760093603e-06</v>
+        <v>-6.794405992177014e-06</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FACOAL182_l</t>
+          <t>NADS2_c</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.267468191061088e-07</v>
+        <v>7.701357951931044e-07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.311736412629403e-06</v>
+        <v>-9.051881223325517e-06</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FACOAL183_rm</t>
+          <t>FACOAL180_rm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.653201312823836e-07</v>
+        <v>1.026017248887665e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.760081124389619e-06</v>
+        <v>-1.357746771958313e-05</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATPt_c_l</t>
+          <t>FACOAL160_rm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.929087560034021e-07</v>
+        <v>1.538985734877976e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-6.794405992177014e-06</v>
+        <v>-1.563116389050771e-05</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NNATi_c</t>
+          <t>FACOAL181_rm</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.180897247220391e-07</v>
+        <v>1.771769135737608e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-6.794405992177014e-06</v>
+        <v>-1.75036458414535e-05</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NADS2_c</t>
+          <t>FACOAL182_rm</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.180897247220391e-07</v>
+        <v>1.984012174781308e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-9.051881223325517e-06</v>
+        <v>-8.800501192824761e-05</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FACOAL180_rm</t>
+          <t>DHAK_c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.570021181004166e-07</v>
+        <v>9.975236969997929e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.357746771958313e-05</v>
+        <v>-0.000188035185838178</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FACOAL160_rm</t>
+          <t>CYSTRS_c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.354813868701463e-07</v>
+        <v>2.131350813249954e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.563116389050771e-05</v>
+        <v>-0.0002410315525784774</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FACOAL181_rm</t>
+          <t>NDPK4_c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.618543571861937e-07</v>
+        <v>2.732056733515523e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.75036458414535e-05</v>
+        <v>-0.0002410315525784774</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FACOAL182_rm</t>
+          <t>NDPK6_c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.077076418440598e-06</v>
+        <v>2.732056733515523e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-6.189397828529529e-05</v>
+        <v>-0.0002410315525784774</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATPt_c_rm</t>
+          <t>NDPK8_c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.808609078269044e-06</v>
+        <v>2.732056733515523e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-8.800501192824761e-05</v>
+        <v>-0.0002410315525784774</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DHAK_c</t>
+          <t>DTMPK_c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.415335976920558e-06</v>
+        <v>2.732056733515523e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.000188035185838178</v>
+        <v>-0.0003762062597962029</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CYSTRS_c</t>
+          <t>NDPK5_c</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.157063313197036e-05</v>
+        <v>4.264241898090332e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.0002410315525784774</v>
+        <v>-0.0003762062597962029</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NDPK8_c</t>
+          <t>NDPK7_c</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.483173298488341e-05</v>
+        <v>4.264241898090332e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.0002410315525784774</v>
+        <v>-0.0008730132259565488</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NDPK6_c</t>
+          <t>TRPTRS_c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.483173298488341e-05</v>
+        <v>9.89547483268244e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.0002410315525784774</v>
+        <v>-0.001531119390375191</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NDPK4_c</t>
+          <t>METTRS_c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.483173298488341e-05</v>
+        <v>0.0001735501014510847</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.0002410315525784774</v>
+        <v>-0.001729346185201883</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DTMPK_c</t>
+          <t>ADSK_c</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.483173298488341e-05</v>
+        <v>0.0001960188132764021</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.0003762062597962029</v>
+        <v>-0.001729346185201883</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NDPK7_c</t>
+          <t>SADT_c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.314962805843537e-05</v>
+        <v>0.0001960188132764021</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.0003762062597962029</v>
+        <v>-0.002485869320419663</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NDPK5_c</t>
+          <t>GK1_c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.314962805843537e-05</v>
+        <v>0.0002817695833943127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.0008730132259565488</v>
+        <v>-0.002485869320419663</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRPTRS_c</t>
+          <t>GMPS2_c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.372034873087159e-05</v>
+        <v>0.0002817695833943127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.001531119390375191</v>
+        <v>-0.002592133830139956</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>METTRS_c</t>
+          <t>ATPPRT_c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9.4216519468456e-05</v>
+        <v>0.0002938145072314326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.001729346185201883</v>
+        <v>-0.002592133830139956</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ADSK_c</t>
+          <t>HISTRS_c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0001064142871875247</v>
+        <v>0.0002938145072314326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.001729346185201883</v>
+        <v>-0.002632424657674568</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SADT_c</t>
+          <t>TYRTRS_c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0001064142871875247</v>
+        <v>0.0002983814124970414</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.002485869320419663</v>
+        <v>-0.002772253532997051</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GMPS2_c</t>
+          <t>CTPS2_c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0001529664875878589</v>
+        <v>0.0003142308071625099</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.002485869320419663</v>
+        <v>-0.004116560730609804</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GK1_c</t>
+          <t>PRASCSi_c</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0001529664875878589</v>
+        <v>0.0004666060249239067</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.002592133830139956</v>
+        <v>-0.004116560730609804</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HISTRS_c</t>
+          <t>AIRC1_c</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0001595054108826743</v>
+        <v>0.0004666060249239067</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.002592133830139956</v>
+        <v>-0.004119957933605978</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ATPPRT_c</t>
+          <t>PRAGSi_c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0001595054108826743</v>
+        <v>0.0004669910928215128</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.002632424657674568</v>
+        <v>-0.004119957933605978</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TYRTRS_c</t>
+          <t>PRAIS_c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0001619846829503377</v>
+        <v>0.0004669910928215128</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.002772253532997051</v>
+        <v>-0.004119957933605978</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CTPS2_c</t>
+          <t>PRFGS_c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0001705889694853313</v>
+        <v>0.0004669910928215128</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.004116560730609804</v>
+        <v>-0.004795933385787368</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AIRC1_c</t>
+          <t>UMPK_c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0002533101119720915</v>
+        <v>0.0005436119030875076</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.004116560730609804</v>
+        <v>-0.005049976225841192</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PRASCSi_c</t>
+          <t>PHETRS_c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0002533101119720915</v>
+        <v>0.0005724072804704947</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.004119957933605978</v>
+        <v>-0.005184267660279912</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PRAGSi_c</t>
+          <t>ARGSS_c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0002535191568344578</v>
+        <v>0.0005876290144628653</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.004119957933605978</v>
+        <v>-0.005184267660279912</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PRFGS_c</t>
+          <t>ARGTRS_c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0002535191568344578</v>
+        <v>0.0005876290144628653</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.004119957933605978</v>
+        <v>-0.005249154237506813</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PRAIS_c</t>
+          <t>CYTK1_c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0002535191568344578</v>
+        <v>0.0005949838113071419</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.004795933385787368</v>
+        <v>-0.005667791562725222</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>UMPK_c</t>
+          <t>PROTRS_c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0002951149035482656</v>
+        <v>0.0006424357283291464</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.005049976225841192</v>
+        <v>-0.006231863148209793</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PHETRS_c</t>
+          <t>ASNS1_c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0003107472783560118</v>
+        <v>0.0007063724020476688</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.005184267660279912</v>
+        <v>-0.006231863148209793</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ARGSS_c</t>
+          <t>ASPTRS_c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0003190108217653486</v>
+        <v>0.0007063724020476688</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.005184267660279912</v>
+        <v>-0.006231863148209793</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ARGTRS_c</t>
+          <t>ASNTRS_c</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0003190108217653486</v>
+        <v>0.0007063724020476688</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.005249154237506813</v>
+        <v>-0.006361313100066578</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CYTK1_c</t>
+          <t>NDPK3_c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0003230035786365431</v>
+        <v>0.0007210453612034391</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.005667791562725222</v>
+        <v>-0.007158586153535837</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROTRS_c</t>
+          <t>SERTRS_c</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.0003487641770259329</v>
+        <v>0.0008114150738356462</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.006231863148209793</v>
+        <v>-0.007480946745842698</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ASPTRS_c</t>
+          <t>THRTRS_c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0003834739859732203</v>
+        <v>0.0008479541666394923</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.006231863148209793</v>
+        <v>-0.007680022841418438</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ASNS1_c</t>
+          <t>ADNK1_c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0003834739859732203</v>
+        <v>0.0008705191454392118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.006231863148209793</v>
+        <v>-0.007690214450406953</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ASNTRS_c</t>
+          <t>METAT_c</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0003834739859732203</v>
+        <v>0.0008716743491320297</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.006361313100066578</v>
+        <v>-0.007910726896888551</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NDPK3_c</t>
+          <t>ILETRS_c</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0003914396116363613</v>
+        <v>0.0008966691063656446</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.007158586153535837</v>
+        <v>-0.008565605718460658</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SERTRS_c</t>
+          <t>SHKK_c</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0004404993339781018</v>
+        <v>0.0009708986449871597</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.007480946745842698</v>
+        <v>-0.008823996978349749</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>THRTRS_c</t>
+          <t>AASADy_c</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.0004603356009680326</v>
+        <v>0.001000186909279102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.007680022841418438</v>
+        <v>-0.008823996978349749</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ADNK1_c</t>
+          <t>LYSTRS_c</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0004725856299026931</v>
+        <v>0.001000186909279102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.007690214450406953</v>
+        <v>-0.009844754562609864</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>METAT_c</t>
+          <t>VALTRS_c</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.0004732127644897915</v>
+        <v>0.001115888260472817</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.007910726896888551</v>
+        <v>-0.01039540719625955</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ILETRS_c</t>
+          <t>GLUTRS_c</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0004867818665059833</v>
+        <v>0.001178303915995795</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.008565605718460658</v>
+        <v>-0.01039540719625955</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SHKK_c</t>
+          <t>GLNTRS_c</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0005270794446243093</v>
+        <v>0.001178303915995795</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.008823996978349749</v>
+        <v>-0.01075802464407106</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AASADy_c</t>
+          <t>LEUTRS_c</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0005429793968558946</v>
+        <v>0.001219406063386274</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.008823996978349749</v>
+        <v>-0.01085545642600131</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LYSTRS_c</t>
+          <t>ACGK_m</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0005429793968558946</v>
+        <v>0.001230449810689618</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.009844754562609864</v>
+        <v>-0.01187475321296984</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VALTRS_c</t>
+          <t>PRPPS_c</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0006057911066510731</v>
+        <v>0.001345985582686996</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.01039540719625955</v>
+        <v>-0.01193994553846963</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GLNTRS_c</t>
+          <t>GLYTRS_c</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.0006396751883920139</v>
+        <v>0.001353375035642424</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.01039540719625955</v>
+        <v>-0.01312183246083823</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GLUTRS_c</t>
+          <t>ALATRS_c</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0006396751883920139</v>
+        <v>0.001487340157219598</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.01075802464407106</v>
+        <v>-0.01519684405090073</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LEUTRS_c</t>
+          <t>HSK_c</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0006619886370009845</v>
+        <v>0.001722539629077425</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.01085545642600131</v>
+        <v>-0.01692958743909878</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ACGK_m</t>
+          <t>ASPK_c</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0006679840436536477</v>
+        <v>0.001918943510251434</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.01187475321296984</v>
+        <v>-0.01890706533114114</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PRPPS_c</t>
+          <t>CBPS_c</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0007307058641578101</v>
+        <v>0.002143087682768987</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.01193994553846963</v>
+        <v>-0.01939171031057232</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GLYTRS_c</t>
+          <t>NDPK1_c</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0007347174350668165</v>
+        <v>0.002198021469041153</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.01312183246083823</v>
+        <v>-0.03039749296915716</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ALATRS_c</t>
+          <t>MEVK1_c</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.000807444142684025</v>
+        <v>0.003445510534200169</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.01519684405090073</v>
+        <v>-0.03039749296915716</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HSK_c</t>
+          <t>PMEVK_c</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.0009351287446173134</v>
+        <v>0.003445510534200169</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.01692958743909878</v>
+        <v>-0.03039749296915716</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ASPK_c</t>
+          <t>DPMVD_c</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.001041752076667204</v>
+        <v>0.003445510534200169</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.01890706533114114</v>
+        <v>-0.04549894355991924</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CBPS_c</t>
+          <t>GLNS_c</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.001163435000601957</v>
+        <v>0.005157237456712121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.01939171031057232</v>
+        <v>-0.04942305274080483</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NDPK1_c</t>
+          <t>NDPK2_c</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.001193257340666946</v>
+        <v>0.005602029385237659</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.03039749296915716</v>
+        <v>-0.07226186305733295</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DPMVD_c</t>
+          <t>ACCOAC_c</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.001870491619480476</v>
+        <v>0.008190774503594669</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.03039749296915716</v>
+        <v>-0.08054538721511041</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MEVK1_c</t>
+          <t>PFK_3_c</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.001870491619480476</v>
+        <v>0.009129699623994661</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.03039749296915716</v>
+        <v>-0.09005750735848239</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PMEVK_c</t>
+          <t>ATPASEP2e_c</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.001870491619480476</v>
+        <v>0.01020788426868954</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.04549894355991924</v>
+        <v>-0.126616847122096</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GLNS_c</t>
+          <t>PC_c</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.00279975038436217</v>
+        <v>0.01435183095556746</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.04942305274080483</v>
+        <v>-0.1823287010699448</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NDPK2_c</t>
+          <t>ADK1_c</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.003041218104881768</v>
+        <v>0.02066668658698096</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.07226186305733295</v>
+        <v>-0.187383628373308</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ACCOAC_c</t>
+          <t>ACITL_c</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.004446590690684018</v>
+        <v>0.02123965506471122</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.08054538721511041</v>
+        <v>-0.2429631586007398</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PFK_3_c</t>
+          <t>PFK_c</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.004956312414531707</v>
+        <v>0.02753951199958471</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.09005750735848239</v>
+        <v>-0.476</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ATPASEP2e_c</t>
+          <t>HEX1_c</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.005541635060373643</v>
+        <v>0.0539538907351133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.126616847122096</v>
+        <v>-1.189</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PC_c</t>
+          <t>ATPM_c</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.007791292251213834</v>
+        <v>0.1347713783278355</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.1823287010699448</v>
+        <v>-5.665016557457797</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ADK1_c</t>
+          <t>BIOMASS_RT_CLIM</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.01121948799159633</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>-0.187383628373308</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ACITL_c</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>0.01153053993155788</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>-0.2429631586007398</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>PFK_c</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>0.01495059321064103</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>HEX1_c</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0.02929037640624196</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>-1.189</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ATPM_c</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>0.07316440661139011</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>-5.665016557457797</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>BIOMASS_RT_CLIM</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0.348593418730109</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>-7.42865680396921</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ADPATPt_c_m</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>0.4571179705484212</v>
+        <v>0.6421211856169867</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4407,145 +4173,145 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44.64657975718706</v>
+        <v>43.03317375319642</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADPATPt_c_m</t>
+          <t>ATPS_m</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4547884490694418</v>
+        <v>0.8040134139590485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43.03317375319642</v>
+        <v>4.571854479789585</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATPS_m</t>
+          <t>PGK_c</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4383536310326557</v>
+        <v>0.08541857380776058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.571854479789585</v>
+        <v>4.229565033071037</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PGK_c</t>
+          <t>PYK_c</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.04657079264621559</v>
+        <v>0.07902338417576436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.229565033071037</v>
+        <v>1.659427826602318</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PYK_c</t>
+          <t>SUCOAS_m</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04308409137027056</v>
+        <v>0.0310040398074537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.659427826602318</v>
+        <v>0.02893388056235328</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SUCOAS_m</t>
+          <t>FTHFL_m</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01690361527596424</v>
+        <v>0.0005405882499729193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02893388056235328</v>
+        <v>-6.162716947432107e-07</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FTHFL_m</t>
+          <t>FACOAL220_l</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0002947324238066603</v>
+        <v>1.151415677724707e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0004273709448279819</v>
+        <v>-6.807879459224881e-06</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATPt_c_rm</t>
+          <t>FACOAL181_l</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.353376456443383e-06</v>
+        <v>1.271955082194352e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.286782371963839e-05</v>
+        <v>-1.255365958924904e-05</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATPt_c_l</t>
+          <t>FACOAL220_rm</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.348051889985121e-07</v>
+        <v>2.345472068111675e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.162716947432107e-07</v>
+        <v>-2.34573038357111e-05</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FACOAL220_l</t>
+          <t>DPCOAK_c</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.277597293722008e-09</v>
+        <v>4.38266232636952e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-6.807879459224881e-06</v>
+        <v>-2.34573038357111e-05</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FACOAL181_l</t>
+          <t>PNTK_c</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.934786399207179e-08</v>
+        <v>4.38266232636952e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.255365958924904e-05</v>
+        <v>-2.34573038357111e-05</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FACOAL220_rm</t>
+          <t>PBAL_c</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.27876746792037e-07</v>
+        <v>4.38266232636952e-07</v>
       </c>
     </row>
     <row r="13">
@@ -4554,76 +4320,76 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DPCOAK_c</t>
+          <t>PTPAT_c</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.389457577447778e-07</v>
+        <v>4.38266232636952e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-2.345730383579436e-05</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PBAL_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.389457577447778e-07</v>
+        <v>4.382662326385077e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-2.345730383583209e-05</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PNTK_c</t>
+          <t>DHFS_1_c</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.389457577447778e-07</v>
+        <v>4.382662326392127e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-2.345730383583788e-05</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTPAT_c</t>
+          <t>RBFK_c</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.389457577447778e-07</v>
+        <v>4.382662326393208e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.345730383579436e-05</v>
+        <v>-2.345730383583788e-05</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>HMPK1_c</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.38945757745626e-07</v>
+        <v>4.382662326393208e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.345730383583209e-05</v>
+        <v>-2.345730383583788e-05</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DHFS_1_c</t>
+          <t>AFAT_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.389457577460103e-07</v>
+        <v>4.382662326393208e-07</v>
       </c>
     </row>
     <row r="19">
@@ -4632,11 +4398,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TMPK_c</t>
+          <t>PMPK_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.389457577460693e-07</v>
+        <v>4.382662326393208e-07</v>
       </c>
     </row>
     <row r="20">
@@ -4645,1077 +4411,999 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HMPK1_c</t>
+          <t>TMPK_c</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.389457577460693e-07</v>
+        <v>4.382662326393208e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-2.54436725656703e-05</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PMPK_c</t>
+          <t>FACOAL182_l</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.389457577460693e-07</v>
+        <v>4.753786964565042e-07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-2.977205401179438e-05</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AFAT_c</t>
+          <t>FACOAL183_rm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.389457577460693e-07</v>
+        <v>5.562483242319069e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-4.69146076720146e-05</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RBFK_c</t>
+          <t>NNATi_c</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.389457577460693e-07</v>
+        <v>8.765324652849723e-07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2.54436725656703e-05</v>
+        <v>-4.69146076720146e-05</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FACOAL182_l</t>
+          <t>NADS2_c</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.591797277127183e-07</v>
+        <v>8.765324652849723e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-2.977205401179438e-05</v>
+        <v>-6.250221973213137e-05</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FACOAL183_rm</t>
+          <t>FACOAL180_rm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.03270403763818e-07</v>
+        <v>1.167764742499776e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-3.286782371963839e-05</v>
+        <v>-9.375088447123207e-05</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATPt_c_l</t>
+          <t>FACOAL160_rm</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.348051889985121e-07</v>
+        <v>1.751601430043183e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.69146076720146e-05</v>
+        <v>-0.000107931425087187</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NADS2_c</t>
+          <t>FACOAL181_rm</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.7789151549559e-07</v>
+        <v>2.016544586172168e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-4.69146076720146e-05</v>
+        <v>-0.0001208607019363881</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NNATi_c</t>
+          <t>FACOAL182_rm</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.7789151549559e-07</v>
+        <v>2.258109665224135e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-6.250221973213137e-05</v>
+        <v>-0.0006076646895116209</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FACOAL180_rm</t>
+          <t>DHAK_c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.366733516870949e-07</v>
+        <v>1.135334717254763e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-9.375088447123207e-05</v>
+        <v>-0.001298361767313627</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FACOAL160_rm</t>
+          <t>CYSTRS_c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.549851204603531e-07</v>
+        <v>2.425803597658641e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.000107931425087187</v>
+        <v>-0.001664295707152698</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FACOAL181_rm</t>
+          <t>DTMPK_c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.099433947420232e-06</v>
+        <v>3.109498920575981e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.0001208607019363881</v>
+        <v>-0.001664295707152698</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FACOAL182_rm</t>
+          <t>NDPK4_c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.231136886319848e-06</v>
+        <v>3.109498920575981e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.0004273709448279819</v>
+        <v>-0.001664295707152698</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ATPt_c_rm</t>
+          <t>NDPK8_c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.353376456443383e-06</v>
+        <v>3.109498920575981e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.0006076646895116209</v>
+        <v>-0.001664295707152698</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DHAK_c</t>
+          <t>NDPK6_c</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.189922793643933e-06</v>
+        <v>3.109498920575981e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.001298361767313627</v>
+        <v>-0.002597661826780687</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CYSTRS_c</t>
+          <t>NDPK7_c</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.322564769124493e-05</v>
+        <v>4.853360260247839e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.001664295707152698</v>
+        <v>-0.002597661826780687</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NDPK6_c</t>
+          <t>NDPK5_c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.695320151208361e-05</v>
+        <v>4.853360260247839e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.001664295707152698</v>
+        <v>-0.006028057939733618</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DTMPK_c</t>
+          <t>TRPTRS_c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.695320151208361e-05</v>
+        <v>0.0001126256564636527</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.001664295707152698</v>
+        <v>-0.01057220683881213</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NDPK4_c</t>
+          <t>METTRS_c</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.695320151208361e-05</v>
+        <v>0.0001975265910505419</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.001664295707152698</v>
+        <v>-0.01194094051763314</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NDPK8_c</t>
+          <t>ADSK_c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.695320151208361e-05</v>
+        <v>0.0002230994257250438</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.002597661826780687</v>
+        <v>-0.01194094051763314</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NDPK7_c</t>
+          <t>SADT_c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.646085321279971e-05</v>
+        <v>0.0002230994257250438</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.002597661826780687</v>
+        <v>-0.01716464750883601</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NDPK5_c</t>
+          <t>GK1_c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.646085321279971e-05</v>
+        <v>0.0003206969330714965</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.006028057939733618</v>
+        <v>-0.01716464750883601</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRPTRS_c</t>
+          <t>GMPS2_c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6.140428082558487e-05</v>
+        <v>0.0003206969330714965</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.01057220683881213</v>
+        <v>-0.01789839197282102</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>METTRS_c</t>
+          <t>HISTRS_c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0001076928530161534</v>
+        <v>0.0003344059008284545</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.01194094051763314</v>
+        <v>-0.01789839197282102</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ADSK_c</t>
+          <t>ATPPRT_c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0001216353379806352</v>
+        <v>0.0003344059008284545</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.01194094051763314</v>
+        <v>-0.01817659559631406</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SADT_c</t>
+          <t>TYRTRS_c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0001216353379806352</v>
+        <v>0.0003396037383475569</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.01716464750883601</v>
+        <v>-0.01914209822219715</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GK1_c</t>
+          <t>CTPS2_c</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0001748461687731086</v>
+        <v>0.0003576427764829914</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.01716464750883601</v>
+        <v>-0.02842438792303876</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GMPS2_c</t>
+          <t>AIRC1_c</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0001748461687731086</v>
+        <v>0.0005310691073999909</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.01789839197282102</v>
+        <v>-0.02842438792303876</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ATPPRT_c</t>
+          <t>PRASCSi_c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0001823203920754057</v>
+        <v>0.0005310691073999909</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.01789839197282102</v>
+        <v>-0.0284478452268746</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HISTRS_c</t>
+          <t>PRAGSi_c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0001823203920754057</v>
+        <v>0.0005315073736326303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.01817659559631406</v>
+        <v>-0.0284478452268746</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TYRTRS_c</t>
+          <t>PRAIS_c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0001851542887622741</v>
+        <v>0.0005315073736326303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.01914209822219715</v>
+        <v>-0.0284478452268746</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CTPS2_c</t>
+          <t>PRFGS_c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0001949892961511024</v>
+        <v>0.0005315073736326303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.02842438792303876</v>
+        <v>-0.03311537954416743</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PRASCSi_c</t>
+          <t>UMPK_c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0002895425219484144</v>
+        <v>0.0006187135886039088</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.02842438792303876</v>
+        <v>-0.03486951672501137</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AIRC1_c</t>
+          <t>PHETRS_c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0002895425219484144</v>
+        <v>0.0006514871374806768</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.0284478452268746</v>
+        <v>-0.03579678394564204</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PRAIS_c</t>
+          <t>ARGSS_c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0002897814677061606</v>
+        <v>0.0006688118016569091</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.0284478452268746</v>
+        <v>-0.03579678394564204</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PRFGS_c</t>
+          <t>ARGTRS_c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0002897814677061606</v>
+        <v>0.0006688118016569091</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.0284478452268746</v>
+        <v>-0.03624481844890642</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PRAGSi_c</t>
+          <t>CYTK1_c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0002897814677061606</v>
+        <v>0.0006771826867003178</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.03311537954416743</v>
+        <v>-0.03913546200059685</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>UMPK_c</t>
+          <t>PROTRS_c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0003373268945828586</v>
+        <v>0.0007311902345484638</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.03486951672501137</v>
+        <v>-0.04303031272949936</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PHETRS_c</t>
+          <t>ASNS1_c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0003551952583471094</v>
+        <v>0.0008039599598158964</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.03579678394564204</v>
+        <v>-0.04303031272949936</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ARGTRS_c</t>
+          <t>ASNTRS_c</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0003646407841508115</v>
+        <v>0.0008039599598158964</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.03579678394564204</v>
+        <v>-0.04303031272949936</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ARGSS_c</t>
+          <t>ASPTRS_c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0003646407841508115</v>
+        <v>0.0008039599598158964</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.03624481844890642</v>
+        <v>-0.0439241500585196</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CYTK1_c</t>
+          <t>NDPK3_c</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.0003692046481237602</v>
+        <v>0.0008206600341945894</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.03913546200059685</v>
+        <v>-0.04942923064287758</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROTRS_c</t>
+          <t>SERTRS_c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0003986499338508096</v>
+        <v>0.0009235146054175768</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.04303031272949936</v>
+        <v>-0.05165509420386024</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ASPTRS_c</t>
+          <t>THRTRS_c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0004383244874669668</v>
+        <v>0.000965101688232722</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.04303031272949936</v>
+        <v>-0.05302969220864034</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ASNS1_c</t>
+          <t>ADNK1_c</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0004383244874669668</v>
+        <v>0.0009907840894653863</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.04303031272949936</v>
+        <v>-0.05310006412014773</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ASNTRS_c</t>
+          <t>METAT_c</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0004383244874669668</v>
+        <v>0.0009920988881633019</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.0439241500585196</v>
+        <v>-0.05462267771213209</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NDPK3_c</t>
+          <t>ILETRS_c</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0004474294826266475</v>
+        <v>0.001020546749323923</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.04942923064287758</v>
+        <v>-0.05914454217256689</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SERTRS_c</t>
+          <t>SHKK_c</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.0005035065007225171</v>
+        <v>0.00110503133098981</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.05165509420386024</v>
+        <v>-0.06092870470232039</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>THRTRS_c</t>
+          <t>AASADy_c</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0005261800636750416</v>
+        <v>0.001138365860644351</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.05302969220864034</v>
+        <v>-0.06092870470232039</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ADNK1_c</t>
+          <t>LYSTRS_c</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.0005401822850789614</v>
+        <v>0.001138365860644351</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.05310006412014773</v>
+        <v>-0.0679769207858746</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>METAT_c</t>
+          <t>VALTRS_c</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0005408991223521982</v>
+        <v>0.001270051715565488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.05462267771213209</v>
+        <v>-0.07177911516462557</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ILETRS_c</t>
+          <t>GLUTRS_c</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0005564090914874968</v>
+        <v>0.001341090289213995</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.05914454217256689</v>
+        <v>-0.07177911516462557</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SHKK_c</t>
+          <t>GLNTRS_c</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0006024706652082099</v>
+        <v>0.001341090289213995</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.06092870470232039</v>
+        <v>-0.07428294777606288</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AASADy_c</t>
+          <t>LEUTRS_c</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0006206448795423727</v>
+        <v>0.001387870826885916</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.06092870470232039</v>
+        <v>-0.07495570317402889</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LYSTRS_c</t>
+          <t>ACGK_m</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0006206448795423727</v>
+        <v>0.001400440301017204</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.0679769207858746</v>
+        <v>-0.0819938326929423</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VALTRS_c</t>
+          <t>PRPPS_c</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.000692440911372334</v>
+        <v>0.001531937702878419</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.07177911516462557</v>
+        <v>-0.08244397835358926</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GLNTRS_c</t>
+          <t>GLYTRS_c</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0007311716292453945</v>
+        <v>0.001540348031883463</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.07177911516462557</v>
+        <v>-0.09060477435807725</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GLUTRS_c</t>
+          <t>ALATRS_c</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0007311716292453945</v>
+        <v>0.001692820854218682</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.07428294777606288</v>
+        <v>-0.1049324955410072</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LEUTRS_c</t>
+          <t>HSK_c</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0007566766994272097</v>
+        <v>0.001960513869114782</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.07495570317402889</v>
+        <v>-0.1168968933624761</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ACGK_m</t>
+          <t>ASPK_c</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0007635296629847329</v>
+        <v>0.002184051561072465</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.0819938326929423</v>
+        <v>-0.130551155352279</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PRPPS_c</t>
+          <t>CBPS_c</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0008352229489131186</v>
+        <v>0.002439161952429488</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.08244397835358926</v>
+        <v>-0.1338975743174618</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GLYTRS_c</t>
+          <t>NDPK1_c</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0008398083180046449</v>
+        <v>0.002501685013177106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.09060477435807725</v>
+        <v>-0.2098912632623102</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ALATRS_c</t>
+          <t>DPMVD_c</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.0009229375471245023</v>
+        <v>0.003921518596410115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.1049324955410072</v>
+        <v>-0.2098912632623102</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>HSK_c</t>
+          <t>PMEVK_c</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.001068885615955803</v>
+        <v>0.003921518596410115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.1168968933624761</v>
+        <v>-0.2098912632623102</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ASPK_c</t>
+          <t>MEVK1_c</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.001190759899694184</v>
+        <v>0.003921518596410115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.130551155352279</v>
+        <v>-0.314165077711532</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CBPS_c</t>
+          <t>GLNS_c</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.001329847835820594</v>
+        <v>0.005869725949710982</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.1338975743174618</v>
+        <v>-0.3412606093723832</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NDPK1_c</t>
+          <t>NDPK2_c</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.001363935837620262</v>
+        <v>0.006375967275034061</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.2098912632623102</v>
+        <v>-0.4989600207550347</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DPMVD_c</t>
+          <t>ACCOAC_c</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.002138038851160279</v>
+        <v>0.009322355632357582</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.2098912632623102</v>
+        <v>-0.5561568215533489</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MEVK1_c</t>
+          <t>PFK_3_c</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.002138038851160279</v>
+        <v>0.0103909961965217</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.2098912632623102</v>
+        <v>-0.6218369391481815</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PMEVK_c</t>
+          <t>ATPASEP2e_c</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.002138038851160279</v>
+        <v>0.0116181354235635</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.314165077711532</v>
+        <v>-0.8742750600321221</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GLNS_c</t>
+          <t>PC_c</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.003200214870237807</v>
+        <v>0.01633458131131837</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.3412606093723832</v>
+        <v>-1.189</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NDPK2_c</t>
+          <t>ATPM_c</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.003476221115011055</v>
+        <v>0.0222147674879848</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.4989600207550347</v>
+        <v>-1.258959133089553</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ACCOAC_c</t>
+          <t>ADK1_c</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.005082612267747334</v>
+        <v>0.02352185401047883</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.5561568215533489</v>
+        <v>-1.293862836446917</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PFK_3_c</t>
+          <t>ACITL_c</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.005665242437141479</v>
+        <v>0.02417397987637742</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.6218369391481815</v>
+        <v>-1.49090687253885</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ATPASEP2e_c</t>
+          <t>PFK_c</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.006334287165273067</v>
+        <v>0.02785546637484369</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.8742750600321221</v>
+        <v>-3.1</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PC_c</t>
+          <t>HEX1_c</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.008905725831060911</v>
+        <v>0.05791907419070889</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-1.189</v>
+        <v>-39.11630090195854</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ATPM_c</t>
+          <t>BIOMASS_RT_CLIM</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.01211164368882074</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>-1.258959133089553</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ADK1_c</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>0.01282427623109109</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>-1.293862836446917</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ACITL_c</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0.01317981972855508</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>-1.49090687253885</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>PFK_c</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>0.01518699143263636</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>HEX1_c</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0.03157787673283792</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>-39.11630090195854</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>BIOMASS_RT_CLIM</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>0.3984547510085946</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>-44.64657975718706</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ADPATPt_c_m</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>0.4547884490694418</v>
+        <v>0.7308322367763321</v>
       </c>
     </row>
   </sheetData>

--- a/Results/iRhto_results/iRhto_all_cofactor_fluxes.xlsx
+++ b/Results/iRhto_results/iRhto_all_cofactor_fluxes.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NADPH fluxes, GR = 0.03" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NADPH fluxes, GR = 0.23" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="NADH fluxes, GR = 0.03" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="NADH fluxes, GR = 0.23" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ATP fluxes, GR = 0.03" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ATP fluxes, GR = 0.23" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="NADPH fluxes, GR = 0.049" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NADPH fluxes, GR = 0.301" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NADH fluxes, GR = 0.049" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NADH fluxes, GR = 0.301" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ATP fluxes, GR = 0.049" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ATP fluxes, GR = 0.301" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2449656923578175</v>
+        <v>0.3533294577591216</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,12 +465,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4483724867146743</v>
+        <v>0.4483724867080044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2449656923578175</v>
+        <v>0.3533294577591216</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -478,12 +478,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4483724867146743</v>
+        <v>0.4483724867080044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03518201175288027</v>
+        <v>0.05074523301050315</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -491,12 +491,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06439532795564716</v>
+        <v>0.06439532796896844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01082865249435574</v>
+        <v>0.01561884800000161</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -504,12 +504,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0198202033922829</v>
+        <v>0.01982020339229491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.004190347979686686</v>
+        <v>0.006044003000000818</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -517,12 +517,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.007669795414075962</v>
+        <v>0.007669795414082043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.003484545085204653</v>
+        <v>0.005025979</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -530,12 +530,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002632424657674568</v>
+        <v>0.003796912</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -543,12 +543,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.00481825343985931</v>
+        <v>0.004818253439859169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.800501192824761e-05</v>
+        <v>0.0001269351754764695</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -556,12 +556,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.000161079805346725</v>
+        <v>0.0001610798053467203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.397202996191506e-06</v>
+        <v>4.900000000640503e-06</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -569,12 +569,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.218064009763441e-06</v>
+        <v>6.21806401054226e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.397202996173044e-06</v>
+        <v>4.900000000000001e-06</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -582,12 +582,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.218064009729649e-06</v>
+        <v>6.218064009729466e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.397202996168955e-06</v>
+        <v>-4.899999999989982e-06</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -595,116 +595,116 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.218064009722164e-06</v>
+        <v>6.218064009716753e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-6.794405992177014e-06</v>
+        <v>-9.800000000000001e-06</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KYN3OX_c</t>
+          <t>DRAPPRy_c</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.243612801914983e-05</v>
+        <v>1.243612801945893e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-6.794405992346336e-06</v>
+        <v>-9.800000000796151e-06</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DRAPPRy_c</t>
+          <t>KYN3OX_c</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.243612801945975e-05</v>
+        <v>1.243612802046924e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0001372639870603718</v>
+        <v>-9.899224999999999e-05</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PSPHS_r</t>
+          <t>CERH124A_r</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0002512408763131264</v>
+        <v>0.0001256204381565595</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0001372639870603718</v>
+        <v>-9.899224999999999e-05</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOAR260_rm</t>
+          <t>PSPHS_r</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002512408763131264</v>
+        <v>0.0001256204381565595</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0001372639870603718</v>
+        <v>-0.0001979845</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3OACR260_rm</t>
+          <t>ECOAR260_rm</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0002512408763131264</v>
+        <v>0.0002512408763131191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0002444287555746502</v>
+        <v>-0.0001979845</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DHFRi_c</t>
+          <t>3OACR260_rm</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0004473897055000477</v>
+        <v>0.0002512408763131191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0002745279741207436</v>
+        <v>-0.0003525549999999986</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3DSPHR_r</t>
+          <t>DHFRi_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0005024817526262528</v>
+        <v>0.0004473897055000334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0006609353594902188</v>
+        <v>-0.000395969</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOAR240_rm</t>
+          <t>3DSPHR_r</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.001209741771755613</v>
+        <v>0.0005024817526262382</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0006609353594902188</v>
+        <v>-0.0009533087263700001</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -712,259 +712,259 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.001209741771755613</v>
+        <v>0.001209741771755578</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.0008079854144314416</v>
+        <v>-0.0009533087263700001</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3OACR200_rm</t>
+          <t>ECOAR240_rm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001478894558706767</v>
+        <v>0.001209741771755578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.0008079854144314416</v>
+        <v>-0.00116540828887</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3OACR220_rm</t>
+          <t>3OACR200_rm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001478894558706767</v>
+        <v>0.001478894558706724</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.0008079854144314416</v>
+        <v>-0.00116540828887</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOAR220_rm</t>
+          <t>3OACR220_rm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001478894558706767</v>
+        <v>0.001478894558706724</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.0008079854144314416</v>
+        <v>-0.00116540828887</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOAR200_rm</t>
+          <t>ECOAR220_rm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001478894558706767</v>
+        <v>0.001478894558706724</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.002963821809951244</v>
+        <v>-0.00116540828887</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRDR_c</t>
+          <t>ECOAR200_rm</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.005424825584008428</v>
+        <v>0.001478894558706724</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.003484545085204653</v>
+        <v>-0.004274906999999992</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SQLEy_r</t>
+          <t>TRDR_c</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.005424825584008268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.003484545085204653</v>
+        <v>-0.005025979</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C4STMO2_c</t>
+          <t>C4STMO1_c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.003484545085204653</v>
+        <v>-0.005025979</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SQLS_c</t>
+          <t>C4STMO2_c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.003484545085204653</v>
+        <v>-0.005025979</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C4STMO3_c</t>
+          <t>SQLS_c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.003484545085204653</v>
+        <v>-0.005025979</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C14STR_c</t>
+          <t>C4STMO3_c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.003484545085204653</v>
+        <v>-0.005025979</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C3STKR1_c</t>
+          <t>C3STKR2_c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.003484545085204653</v>
+        <v>-0.005025979</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C3STKR2_c</t>
+          <t>C3STKR1_c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.003484545085204653</v>
+        <v>-0.005025979</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C4STMO1_c</t>
+          <t>SQLEy_r</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006377930435419797</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.005188038555605649</v>
+        <v>-0.005025979</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SO3R_c</t>
+          <t>C14STR_c</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.009495916452458605</v>
+        <v>0.00637793043541961</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.006820065134520241</v>
+        <v>-0.007483034999999975</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3OAR180_c</t>
+          <t>SO3R_c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01248309318128606</v>
+        <v>0.009495916452458323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.006820065134520241</v>
+        <v>-0.009837009798</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EAR180y_c</t>
+          <t>3OAR180_c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01248309318128606</v>
+        <v>0.0124830931812857</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.007910726896888551</v>
+        <v>-0.009837009798</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KARA2i_m</t>
+          <t>EAR180y_c</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01447938385305646</v>
+        <v>0.0124830931812857</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.008565605718460658</v>
+        <v>-0.01141014</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SHK3Di_c</t>
+          <t>KARA2i_m</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01567804005221173</v>
+        <v>0.01447938385305604</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.008823996978349749</v>
+        <v>-0.0123547130000008</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AASADy_c</t>
+          <t>SHK3Di_c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01615098600079208</v>
+        <v>0.01567804005221259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.008823996978349749</v>
+        <v>-0.012727407</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -972,129 +972,129 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01615098600079208</v>
+        <v>0.01615098600079161</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.012727407</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EAR120y_c</t>
+          <t>AASADy_c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01615098600079161</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3OAR100_c</t>
+          <t>EAR100y_c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3OAR80_c</t>
+          <t>3OAR100_c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EAR100y_c</t>
+          <t>3OAR80_c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EAR40y_c</t>
+          <t>EAR80y_c</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3OAR120_c</t>
+          <t>EAR160y_c</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EAR60y_c</t>
+          <t>3OAR120_c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EAR140y_c</t>
+          <t>EAR40y_c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EAR160y_c</t>
+          <t>EAR120y_c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1102,163 +1102,176 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3OAR40_c</t>
+          <t>EAR140y_c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3OAR160_c</t>
+          <t>3OAR40_c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3OAR140_c</t>
+          <t>3OAR160_c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.009003946821057034</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EAR80y_c</t>
+          <t>3OAR140_c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01648035685138746</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.009214539434789802</v>
+        <v>-0.01298696</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MTHFR3_c</t>
+          <t>EAR60y_c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0168658146393506</v>
+        <v>0.01648035685138698</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.01045363525561396</v>
+        <v>-0.013290711</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LNS14DMy_c</t>
+          <t>MTHFR3_c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01913379130625939</v>
+        <v>0.01686581463935011</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.01045363525561396</v>
+        <v>-0.015077937</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C4STMO4_c</t>
+          <t>LNS14DMy_c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01913379130625939</v>
+        <v>0.01913379130625883</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.01085545642600131</v>
+        <v>-0.015077937</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AGPRi_m</t>
+          <t>C4STMO4_c</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01986926391733022</v>
+        <v>0.01913379130625883</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.01692958743909878</v>
+        <v>-0.01565750901050401</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ASAD_c</t>
+          <t>AGPRi_m</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.03098703800544663</v>
+        <v>0.01986926393065915</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.02060617640967709</v>
+        <v>-0.024418611</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KARA1i_m</t>
+          <t>ASAD_c</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.03771647559933643</v>
+        <v>0.03098703800544572</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.06079498593831432</v>
+        <v>-0.02972158699999999</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HMGCOAR_c</t>
+          <t>KARA1i_m</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1112759862925179</v>
+        <v>0.03771647559933532</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.191686669478603</v>
+        <v>-0.08768844000000001</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>HMGCOAR_c</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1112759862925146</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-0.2764817650105072</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>GLUDy_c</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>0.3508533290393728</v>
+      <c r="C64" t="n">
+        <v>0.3508533290527172</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1312,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.691460499003437</v>
+        <v>2.170452383414846</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1307,12 +1320,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4483724867247573</v>
+        <v>0.4483724867157348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.691460499003437</v>
+        <v>2.170452383414846</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1320,25 +1333,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4483724867247573</v>
+        <v>0.4483724867157348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2429278261895809</v>
+        <v>0.3117207169897208</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ICDHyi_m</t>
+          <t>ME2_m</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06439532793549478</v>
+        <v>0.06439532795351757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.07477062512273439</v>
+        <v>0.09594435199997843</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1346,12 +1359,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01982020339227378</v>
+        <v>0.01982020339228874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02893388056235328</v>
+        <v>0.03712744699998941</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1359,12 +1372,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.007669795414071385</v>
+        <v>0.007669795414078942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02406039111745727</v>
+        <v>0.030873871</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1372,12 +1385,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01817659559631406</v>
+        <v>0.023323888</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1385,12 +1398,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.004818253439859399</v>
+        <v>0.004818253439859249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0006076646895116209</v>
+        <v>0.0007797446493554553</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1398,38 +1411,38 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.000161079805346728</v>
+        <v>0.0001610798053467229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.345730383583788e-05</v>
+        <v>3.01000000003937e-05</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SSALy_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.218064009729763e-06</v>
+        <v>6.218064009810899e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.345730383579436e-05</v>
+        <v>3.01e-05</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>SSALy_c</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.218064009718227e-06</v>
+        <v>6.218064009729569e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-3.009999999981083e-05</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1437,12 +1450,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.218064009696154e-06</v>
+        <v>6.21806400969049e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.691460767167577e-05</v>
+        <v>-6.019999999999818e-05</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1450,12 +1463,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.243612801945953e-05</v>
+        <v>1.243612801945876e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.69146076720146e-05</v>
+        <v>-6.020000000045087e-05</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1463,51 +1476,51 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.243612801954935e-05</v>
+        <v>1.243612801955228e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0009477923614870296</v>
+        <v>-0.0012161905</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3OACR260_rm</t>
+          <t>PSPHS_r</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0002512408763131311</v>
+        <v>0.0002512408763131232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0009477923614870296</v>
+        <v>-0.0012161905</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PSPHS_r</t>
+          <t>ECOAR260_rm</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002512408763131311</v>
+        <v>0.0002512408763131232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0009477923614870296</v>
+        <v>-0.0012161905</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOAR260_rm</t>
+          <t>3OACR260_rm</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0002512408763131311</v>
+        <v>0.0002512408763131232</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.00168775301098853</v>
+        <v>-0.002165695000000005</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1515,12 +1528,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0004473897055000549</v>
+        <v>0.0004473897055000434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.001895584722974059</v>
+        <v>-0.002432381</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1528,64 +1541,64 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0005024817526262621</v>
+        <v>0.0005024817526262464</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.004563684172207495</v>
+        <v>-0.005856039319129999</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3OACR240_rm</t>
+          <t>ECOAR240_rm</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.001209741771755636</v>
+        <v>0.001209741771755598</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.004563684172207495</v>
+        <v>-0.005856039319129999</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOAR240_rm</t>
+          <t>3OACR240_rm</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.001209741771755636</v>
+        <v>0.001209741771755598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.005579048229556635</v>
+        <v>-0.007158936631629999</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOAR220_rm</t>
+          <t>3OACR220_rm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001478894558706795</v>
+        <v>0.001478894558706748</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.005579048229556635</v>
+        <v>-0.007158936631629999</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3OACR220_rm</t>
+          <t>ECOAR220_rm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001478894558706795</v>
+        <v>0.001478894558706748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.005579048229556635</v>
+        <v>-0.007158936631630003</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1593,12 +1606,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001478894558706795</v>
+        <v>0.001478894558706749</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.005579048229556635</v>
+        <v>-0.007158936631630003</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1606,12 +1619,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001478894558706795</v>
+        <v>0.001478894558706749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.02046485558549991</v>
+        <v>-0.02626014299999981</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1619,77 +1632,77 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.005424825584008502</v>
+        <v>0.005424825584008329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.030873871</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C4STMO3_c</t>
+          <t>SQLEy_r</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.030873871</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SQLS_c</t>
+          <t>C4STMO2_c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.030873871</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C4STMO1_c</t>
+          <t>SQLS_c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.030873871</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SQLEy_r</t>
+          <t>C4STMO3_c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.030873871</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C3STKR2_c</t>
+          <t>C14STR_c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.030873871</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1697,38 +1710,38 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.030873871</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C14STR_c</t>
+          <t>C3STKR2_c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.02406039111745727</v>
+        <v>-0.030873871</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C4STMO2_c</t>
+          <t>C4STMO1_c</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006377930435419915</v>
+        <v>0.006377930435419715</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.03582282155289943</v>
+        <v>-0.04596721499999944</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1736,38 +1749,38 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.009495916452458703</v>
+        <v>0.009495916452458394</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.04709178115669392</v>
+        <v>-0.060427345902</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EAR180y_c</t>
+          <t>3OAR180_c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01248309318128629</v>
+        <v>0.0124830931812859</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.04709178115669392</v>
+        <v>-0.060427345902</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3OAR180_c</t>
+          <t>EAR180y_c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01248309318128629</v>
+        <v>0.0124830931812859</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.05462267771213209</v>
+        <v>-0.07009086</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1775,12 +1788,12 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01447938385305673</v>
+        <v>0.01447938385305628</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.05914454217256689</v>
+        <v>-0.07589323700000045</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1788,64 +1801,64 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01567804005221242</v>
+        <v>0.01567804005221193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.06092870470232039</v>
+        <v>-0.078182643</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SACCD1_c</t>
+          <t>AASADy_c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01615098600079238</v>
+        <v>0.01615098600079187</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.06092870470232039</v>
+        <v>-0.078182643</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AASADy_c</t>
+          <t>SACCD1_c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01615098600079238</v>
+        <v>0.01615098600079187</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3OAR40_c</t>
+          <t>EAR120y_c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3OAR60_c</t>
+          <t>3OAR100_c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1853,25 +1866,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EAR60y_c</t>
+          <t>EAR100y_c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.06217123808650471</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1879,129 +1892,129 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EAR120y_c</t>
+          <t>3OAR120_c</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3OAR100_c</t>
+          <t>EAR60y_c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3OAR120_c</t>
+          <t>EAR140y_c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3OAR140_c</t>
+          <t>EAR160y_c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3OAR160_c</t>
+          <t>3OAR60_c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EAR140y_c</t>
+          <t>3OAR40_c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EAR100y_c</t>
+          <t>3OAR160_c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EAR80y_c</t>
+          <t>3OAR140_c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.06217123808650472</v>
+        <v>-0.07977703999999999</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EAR160y_c</t>
+          <t>EAR80y_c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01648035685138776</v>
+        <v>0.01648035685138725</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.06362535635128831</v>
+        <v>-0.081642939</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2009,12 +2022,12 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01686581463935091</v>
+        <v>0.01686581463935038</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.07218117335237181</v>
+        <v>-0.09262161299999999</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2022,12 +2035,12 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01913379130625974</v>
+        <v>0.01913379130625915</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.07218117335237181</v>
+        <v>-0.09262161299999999</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2035,12 +2048,12 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01913379130625974</v>
+        <v>0.01913379130625915</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.07495570317402889</v>
+        <v>-0.09618184098971039</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2048,12 +2061,12 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01986926389717234</v>
+        <v>0.01986926391520433</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.1168968933624761</v>
+        <v>-0.150000039</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2061,12 +2074,12 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0309870380054472</v>
+        <v>0.03098703800544624</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.1422833258657732</v>
+        <v>-0.1825754629999998</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2074,12 +2087,12 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.03771647559933711</v>
+        <v>0.03771647559933592</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.4197825265246204</v>
+        <v>-0.5386575599999999</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2087,12 +2100,12 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.11127598629252</v>
+        <v>0.1112759862925164</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1.32357485026538</v>
+        <v>-1.698387984989667</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2100,7 +2113,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.350853329019202</v>
+        <v>0.3508533290372547</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2154,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.014879160530486</v>
+        <v>1.407869961901433</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2149,12 +2162,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3385909461435276</v>
+        <v>0.3388033330824015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7162038966570764</v>
+        <v>1.005048912467355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2162,12 +2175,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2389448561285305</v>
+        <v>0.2418646115546732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5311203026980575</v>
+        <v>0.7380911794673526</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2175,12 +2188,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1771959981054022</v>
+        <v>0.1776213418066858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3020405597987373</v>
+        <v>0.4076750278547394</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2188,12 +2201,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1007688431226815</v>
+        <v>0.09810682945824278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2967489065517513</v>
+        <v>0.4000425428652425</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2201,12 +2214,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09900340547331253</v>
+        <v>0.09627007505327595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05245682296043547</v>
+        <v>0.07566178201050333</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2214,12 +2227,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01750100505421092</v>
+        <v>0.01820797703325623</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.03244084262728938</v>
+        <v>0.04679147200000239</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2227,12 +2240,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01082313641470939</v>
+        <v>0.01126034868449205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01075802464407106</v>
+        <v>0.015516977</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2240,12 +2253,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.003589165966288446</v>
+        <v>0.003734154196927904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.008823996978349749</v>
+        <v>0.012727407</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2253,12 +2266,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.002943922391810037</v>
+        <v>0.003062845312270528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008823996978349749</v>
+        <v>0.012727407</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2266,12 +2279,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.002943922391810037</v>
+        <v>0.003062845312270528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.00771226229784907</v>
+        <v>0.0111238820000016</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2279,12 +2292,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.002573017842804875</v>
+        <v>0.002676957673935893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.005184267660279912</v>
+        <v>0.007477596</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2292,12 +2305,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001729610933421801</v>
+        <v>0.001799480432711301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.004193745182682855</v>
+        <v>0.006048903000000808</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2305,12 +2318,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001399146030890241</v>
+        <v>0.00145566604398929</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.003484545085204653</v>
+        <v>0.005025979</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2318,12 +2331,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001162537830279728</v>
+        <v>0.001209499799897977</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.002485869320419663</v>
+        <v>0.003585526000000002</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2331,12 +2344,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0008293527721567382</v>
+        <v>0.000862855371964148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.397202996168955e-06</v>
+        <v>4.899999999989982e-06</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2344,12 +2357,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.133398163494875e-06</v>
+        <v>1.179183004841041e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-4.900000000000001e-06</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2357,25 +2370,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.133398163496239e-06</v>
+        <v>1.179183004843452e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-4.900000000000001e-06</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>THZPSN2_c</t>
+          <t>THZPSN1_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.133398163496239e-06</v>
+        <v>1.179183004843452e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.397202996191506e-06</v>
+        <v>-4.900000000640503e-06</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2383,12 +2396,12 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.133398163502399e-06</v>
+        <v>1.179183004997589e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-6.794405992346088e-06</v>
+        <v>-9.800000000000001e-06</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2396,12 +2409,12 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.266796326992479e-06</v>
+        <v>2.358366009686904e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.0006917125208087456</v>
+        <v>-0.0009977005659599998</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2409,12 +2422,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0002307738753424944</v>
+        <v>0.0002400962349597398</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.00349605898479761</v>
+        <v>-0.00504258622308</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2422,12 +2435,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001166379176430675</v>
+        <v>0.001213496321370136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.003757391912154675</v>
+        <v>-0.005419523175476469</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2435,12 +2448,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001253566860022518</v>
+        <v>0.001304206045485116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.005124956278752266</v>
+        <v>-0.00739204745615</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2448,12 +2461,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001709823063526012</v>
+        <v>0.001778893210467011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.01692958743909878</v>
+        <v>-0.024418611</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2461,12 +2474,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.005648165073985524</v>
+        <v>0.005876328794506809</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.7570872037289355</v>
+        <v>-1.064017483046692</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2474,12 +2487,12 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2525846254343673</v>
+        <v>0.2560553740540744</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2.210256700294507</v>
+        <v>-3.048107004099271</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2487,7 +2500,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.737400999525508</v>
+        <v>0.7335257094241123</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2541,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.2607208042811</v>
+        <v>7.997827334405013</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2536,12 +2549,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3392292749712327</v>
+        <v>0.339256150090018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.571854479789585</v>
+        <v>5.848613532195906</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2549,12 +2562,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2477201793430061</v>
+        <v>0.2480896407655161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.293873121767724</v>
+        <v>4.208730315195927</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2562,12 +2575,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1784743683475598</v>
+        <v>0.178528190694772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.712103313599046</v>
+        <v>2.490751815211538</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2575,12 +2588,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09276816262927738</v>
+        <v>0.1056540528229912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.675565044203144</v>
+        <v>2.132145833211538</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2588,38 +2601,38 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09078838250118103</v>
+        <v>0.09044251101722893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3622084507678149</v>
+        <v>0.2874333279999787</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ME1_m</t>
+          <t>PGCD_c</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01962580890979826</v>
+        <v>0.01219250181175467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2240003623734146</v>
+        <v>0.1530588009999896</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PGCD_c</t>
+          <t>ME1_m</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01213717763444528</v>
+        <v>0.006492530707842999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.07428294777606288</v>
+        <v>0.09531857299999999</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2627,12 +2640,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.004024928008220497</v>
+        <v>0.004043274598958323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06092870470232039</v>
+        <v>0.078182643</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2640,12 +2653,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.003301345159325919</v>
+        <v>0.003316393485258395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06092870470232039</v>
+        <v>0.078182643</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2653,12 +2666,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.003301345159325919</v>
+        <v>0.003316393485258395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.05325230202200498</v>
+        <v>0.06833241799998967</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2666,12 +2679,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.002885408944146038</v>
+        <v>0.002898561332687604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.03579678394564204</v>
+        <v>0.04593380399999999</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2679,12 +2692,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.00193960367245228</v>
+        <v>0.001948444852890634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02895733786618899</v>
+        <v>0.03715754699998922</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2692,12 +2705,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001569016897020419</v>
+        <v>0.001576168853730704</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02406039111745727</v>
+        <v>0.030873871</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2705,12 +2718,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001303682002353168</v>
+        <v>0.001309624498740828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01716464750883601</v>
+        <v>0.02202537400000001</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2718,12 +2731,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.000930044816177971</v>
+        <v>0.0009342841843295024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.345730383571109e-05</v>
+        <v>3.009999999981083e-05</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2731,51 +2744,51 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.271004477236374e-06</v>
+        <v>1.27679802159733e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.345730383579436e-05</v>
+        <v>-3.01e-05</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>AHMMPS4_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.271004477240886e-06</v>
+        <v>1.276798021605354e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-3.01e-05</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AHMMPS4_c</t>
+          <t>THZPSN1_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.271004477243244e-06</v>
+        <v>1.276798021605354e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-3.01000000003937e-05</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>THZPSN2_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.271004477243244e-06</v>
+        <v>1.276798021622054e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-4.691460767167577e-05</v>
+        <v>-6.02e-05</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2783,12 +2796,12 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.542008954486488e-06</v>
+        <v>2.553596043210708e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.004776197002634925</v>
+        <v>-0.006128732048039999</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2796,12 +2809,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.000258792221690465</v>
+        <v>0.0002599718589331163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.02413989329657096</v>
+        <v>-0.03097588679891999</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2809,12 +2822,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001307989727840771</v>
+        <v>0.001313951859878154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.02594436770867683</v>
+        <v>-0.03329135664935545</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2822,12 +2835,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001405762902153901</v>
+        <v>0.001412170707855657</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.03538724554037613</v>
+        <v>-0.04540829151634999</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2835,12 +2848,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001917413349543098</v>
+        <v>0.001926153381148002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.1168968933624761</v>
+        <v>-0.150000039</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2848,12 +2861,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.006333911001849209</v>
+        <v>0.006362782492887907</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.854149107716916</v>
+        <v>-6.210849037183208</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2861,12 +2874,12 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2630159583680953</v>
+        <v>0.26345514163339</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-13.39430986257966</v>
+        <v>-17.097794089024</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2874,7 +2887,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.725753817406441</v>
+        <v>0.7252634440757991</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2915,7 +2928,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.14091007769296</v>
+        <v>9.829769258584072</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2923,12 +2936,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8094115169771332</v>
+        <v>0.8076331586304099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7162038966570764</v>
+        <v>1.005048912467355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2936,12 +2949,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08118064450482831</v>
+        <v>0.08257679365619115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6666318425928657</v>
+        <v>0.9335480144673507</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2949,12 +2962,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07556172604160236</v>
+        <v>0.07670213937107398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.294411834722564</v>
+        <v>0.3966716368652425</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2962,12 +2975,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.03337114277677616</v>
+        <v>0.03259132117885723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.004190347979686686</v>
+        <v>0.006044003000000818</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2975,51 +2988,51 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0004749696996599123</v>
+        <v>0.0004965871634677074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-9.859508432137099e-07</v>
+        <v>-1.287330941942554e-07</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FACOAL181_l</t>
+          <t>FACOAL220_l</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.117560589599692e-07</v>
+        <v>1.057696399064293e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.81808319779603e-06</v>
+        <v>-1.422099043592637e-06</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FACOAL220_rm</t>
+          <t>FACOAL181_l</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.060770214311605e-07</v>
+        <v>1.168424519689536e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.397202996168955e-06</v>
+        <v>-2.622335986173351e-06</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PBAL_c</t>
+          <t>FACOAL220_rm</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.850678976056708e-07</v>
+        <v>2.15456277740587e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.397202996168955e-06</v>
+        <v>-4.899999999989982e-06</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3027,324 +3040,324 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.850678976056708e-07</v>
+        <v>4.025936289221667e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.397202996168955e-06</v>
+        <v>-4.899999999989982e-06</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PTPAT_c</t>
+          <t>PNTK_c</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.850678976056708e-07</v>
+        <v>4.025936289221667e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.397202996168955e-06</v>
+        <v>-4.899999999989982e-06</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PNTK_c</t>
+          <t>PBAL_c</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.850678976056708e-07</v>
+        <v>4.025936289221667e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-3.397202996172804e-06</v>
+        <v>-4.899999999989982e-06</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DHFS_1_c</t>
+          <t>PTPAT_c</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.850678976061071e-07</v>
+        <v>4.025936289221667e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-4.899999999998655e-06</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HMPK1_c</t>
+          <t>DHFS_1_c</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.850678976061343e-07</v>
+        <v>4.025936289228793e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-4.900000000000001e-06</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PMPK_c</t>
+          <t>RBFK_c</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.850678976061343e-07</v>
+        <v>4.025936289229898e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.397202996173044e-06</v>
+        <v>-4.900000000000001e-06</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TMPK_c</t>
+          <t>HMPK1_c</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.850678976061343e-07</v>
+        <v>4.025936289229898e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.397202996191506e-06</v>
+        <v>-4.900000000000001e-06</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>AFAT_c</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.85067897608227e-07</v>
+        <v>4.025936289229898e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.397202996247017e-06</v>
+        <v>-4.900000000000001e-06</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AFAT_c</t>
+          <t>PMPK_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.850678976145191e-07</v>
+        <v>4.025936289229898e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.397202996247017e-06</v>
+        <v>-4.900000000000001e-06</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RBFK_c</t>
+          <t>TMPK_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.850678976145191e-07</v>
+        <v>4.025936289229898e-07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.684878760093603e-06</v>
+        <v>-4.900000000640503e-06</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FACOAL182_l</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.176755167946009e-07</v>
+        <v>4.025936289756148e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-4.311736412629403e-06</v>
+        <v>-5.31493288590604e-06</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FACOAL183_rm</t>
+          <t>FACOAL182_l</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.887288976588576e-07</v>
+        <v>4.366853302079697e-07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-6.794405992177014e-06</v>
+        <v>-6.219089187688891e-06</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NNATi_c</t>
+          <t>FACOAL183_rm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.701357951931044e-07</v>
+        <v>5.109725887076325e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-6.794405992177014e-06</v>
+        <v>-9.800000000796151e-06</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NADS2_c</t>
+          <t>NNATi_c</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.701357951931044e-07</v>
+        <v>8.051872579113929e-07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-9.051881223325517e-06</v>
+        <v>-9.800000000796151e-06</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FACOAL180_rm</t>
+          <t>NADS2_c</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.026017248887665e-06</v>
+        <v>8.051872579113929e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1.357746771958313e-05</v>
+        <v>-1.305609880959724e-05</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FACOAL160_rm</t>
+          <t>FACOAL180_rm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.538985734877976e-06</v>
+        <v>1.07271473455773e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1.563116389050771e-05</v>
+        <v>-1.958363745142787e-05</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FACOAL181_rm</t>
+          <t>FACOAL160_rm</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.771769135737608e-06</v>
+        <v>1.609030136547452e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.75036458414535e-05</v>
+        <v>-2.254581287893866e-05</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FACOAL182_rm</t>
+          <t>FACOAL181_rm</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.984012174781308e-06</v>
+        <v>1.852408290602162e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-8.800501192824761e-05</v>
+        <v>-2.524661161542005e-05</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DHAK_c</t>
+          <t>FACOAL182_rm</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.975236969997929e-06</v>
+        <v>2.074311222094136e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.000188035185838178</v>
+        <v>-0.0001269351754764695</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CYSTRS_c</t>
+          <t>DHAK_c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.131350813249954e-05</v>
+        <v>1.042924345572416e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.0002410315525784774</v>
+        <v>-0.000271215</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NDPK4_c</t>
+          <t>CYSTRS_c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.732056733515523e-05</v>
+        <v>2.228355736088748e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.0002410315525784774</v>
+        <v>-0.000347655</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NDPK6_c</t>
+          <t>DTMPK_c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.732056733515523e-05</v>
+        <v>2.856401797208613e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.0002410315525784774</v>
+        <v>-0.000347655</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NDPK8_c</t>
+          <t>NDPK4_c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.732056733515523e-05</v>
+        <v>2.856401797208613e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.0002410315525784774</v>
+        <v>-0.000347655</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DTMPK_c</t>
+          <t>NDPK8_c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.732056733515523e-05</v>
+        <v>2.856401797208613e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.0003762062597962029</v>
+        <v>-0.000347655</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NDPK5_c</t>
+          <t>NDPK6_c</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.264241898090332e-05</v>
+        <v>2.856401797208613e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.0003762062597962029</v>
+        <v>-0.000542626</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3352,103 +3365,103 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.264241898090332e-05</v>
+        <v>4.458321846693189e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.0008730132259565488</v>
+        <v>-0.000542626</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRPTRS_c</t>
+          <t>NDPK5_c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9.89547483268244e-05</v>
+        <v>4.458321846693189e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.001531119390375191</v>
+        <v>-0.001259202</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>METTRS_c</t>
+          <t>TRPTRS_c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0001735501014510847</v>
+        <v>0.0001034585107606299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.001729346185201883</v>
+        <v>-0.00220843</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ADSK_c</t>
+          <t>METTRS_c</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0001960188132764021</v>
+        <v>0.0001814489485555915</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.001729346185201883</v>
+        <v>-0.002494344999999992</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SADT_c</t>
+          <t>ADSK_c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0001960188132764021</v>
+        <v>0.0002049402868032472</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.002485869320419663</v>
+        <v>-0.002494344999999992</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GK1_c</t>
+          <t>SADT_c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0002817695833943127</v>
+        <v>0.0002049402868032472</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.002485869320419663</v>
+        <v>-0.003585526000000002</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GMPS2_c</t>
+          <t>GK1_c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0002817695833943127</v>
+        <v>0.0002945938620281087</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.002592133830139956</v>
+        <v>-0.003585526000000002</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ATPPRT_c</t>
+          <t>GMPS2_c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0002938145072314326</v>
+        <v>0.0002945938620281087</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.002592133830139956</v>
+        <v>-0.003738798</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3456,51 +3469,51 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0002938145072314326</v>
+        <v>0.0003071869907408197</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.002632424657674568</v>
+        <v>-0.003738798</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TYRTRS_c</t>
+          <t>ATPPRT_c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0002983814124970414</v>
+        <v>0.0003071869907408197</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.002772253532997051</v>
+        <v>-0.003796912</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CTPS2_c</t>
+          <t>TYRTRS_c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0003142308071625099</v>
+        <v>0.0003119617511798464</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.004116560730609804</v>
+        <v>-0.003998596</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PRASCSi_c</t>
+          <t>CTPS2_c</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0004666060249239067</v>
+        <v>0.0003285325049463166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.004116560730609804</v>
+        <v>-0.005937575000000805</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3508,155 +3521,155 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0004666060249239067</v>
+        <v>0.000487842829847499</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.004119957933605978</v>
+        <v>-0.005937575000000805</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PRAGSi_c</t>
+          <t>PRASCSi_c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0004669910928215128</v>
+        <v>0.000487842829847499</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.004119957933605978</v>
+        <v>-0.005942475000000806</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PRAIS_c</t>
+          <t>PRAGSi_c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0004669910928215128</v>
+        <v>0.0004882454234764221</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.004119957933605978</v>
+        <v>-0.005942475000000806</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PRFGS_c</t>
+          <t>PRAIS_c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0004669910928215128</v>
+        <v>0.0004882454234764221</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.004795933385787368</v>
+        <v>-0.005942475000000806</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>UMPK_c</t>
+          <t>PRFGS_c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0005436119030875076</v>
+        <v>0.0004882454234764221</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.005049976225841192</v>
+        <v>-0.006917476999999998</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PHETRS_c</t>
+          <t>UMPK_c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0005724072804704947</v>
+        <v>0.0005683535037594522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.005184267660279912</v>
+        <v>-0.007283899000000001</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ARGSS_c</t>
+          <t>PHETRS_c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0005876290144628653</v>
+        <v>0.0005984594553303136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.005184267660279912</v>
+        <v>-0.007477596</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ARGTRS_c</t>
+          <t>ARGSS_c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0005876290144628653</v>
+        <v>0.0006143739814816393</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.005249154237506813</v>
+        <v>-0.007477596</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CYTK1_c</t>
+          <t>ARGTRS_c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0005949838113071419</v>
+        <v>0.0006143739814816393</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.005667791562725222</v>
+        <v>-0.00757118599999999</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROTRS_c</t>
+          <t>CYTK1_c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0006424357283291464</v>
+        <v>0.0006220635197940677</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.006231863148209793</v>
+        <v>-0.008175013000000002</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ASNS1_c</t>
+          <t>PROTRS_c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0007063724020476688</v>
+        <v>0.0006716751326862486</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.006231863148209793</v>
+        <v>-0.008988609</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ASPTRS_c</t>
+          <t>ASNS1_c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0007063724020476688</v>
+        <v>0.0007385217788326217</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.006231863148209793</v>
+        <v>-0.008988609</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3664,475 +3677,488 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0007063724020476688</v>
+        <v>0.0007385217788326217</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.006361313100066578</v>
+        <v>-0.008988609</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NDPK3_c</t>
+          <t>ASPTRS_c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0007210453612034391</v>
+        <v>0.0007385217788326217</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.007158586153535837</v>
+        <v>-0.00917532282452352</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SERTRS_c</t>
+          <t>NDPK3_c</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.0008114150738356462</v>
+        <v>0.0007538625535642573</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.007480946745842698</v>
+        <v>-0.01032528</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>THRTRS_c</t>
+          <t>SERTRS_c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0008479541666394923</v>
+        <v>0.000848345294866524</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.007680022841418438</v>
+        <v>-0.010790241</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ADNK1_c</t>
+          <t>THRTRS_c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0008705191454392118</v>
+        <v>0.0008865474043150265</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.007690214450406953</v>
+        <v>-0.011077381</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>METAT_c</t>
+          <t>ADNK1_c</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0008716743491320297</v>
+        <v>0.0009101393909699138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.007910726896888551</v>
+        <v>-0.01109208099999999</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ILETRS_c</t>
+          <t>METAT_c</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0008966691063656446</v>
+        <v>0.0009113471718566821</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.008565605718460658</v>
+        <v>-0.01141014</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SHKK_c</t>
+          <t>ILETRS_c</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0009708986449871597</v>
+        <v>0.000937479524310074</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.008823996978349749</v>
+        <v>-0.0123547130000008</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AASADy_c</t>
+          <t>SHKK_c</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.001000186909279102</v>
+        <v>0.001015087498157624</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.008823996978349749</v>
+        <v>-0.012727407</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LYSTRS_c</t>
+          <t>AASADy_c</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.001000186909279102</v>
+        <v>0.001045708769573441</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.009844754562609864</v>
+        <v>-0.012727407</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VALTRS_c</t>
+          <t>LYSTRS_c</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.001115888260472817</v>
+        <v>0.001045708769573441</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.01039540719625955</v>
+        <v>-0.01419971</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GLUTRS_c</t>
+          <t>VALTRS_c</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.001178303915995795</v>
+        <v>0.001166676077255932</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.01039540719625955</v>
+        <v>-0.014993951</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GLNTRS_c</t>
+          <t>GLUTRS_c</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.001178303915995795</v>
+        <v>0.00123193247856806</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.01075802464407106</v>
+        <v>-0.014993951</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LEUTRS_c</t>
+          <t>GLNTRS_c</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.001219406063386274</v>
+        <v>0.00123193247856806</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.01085545642600131</v>
+        <v>-0.015516977</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ACGK_m</t>
+          <t>LEUTRS_c</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.001230449810689618</v>
+        <v>0.001274905322519299</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.01187475321296984</v>
+        <v>-0.01565750901050401</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PRPPS_c</t>
+          <t>ACGK_m</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.001345985582686996</v>
+        <v>0.001286451708659841</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.01193994553846963</v>
+        <v>-0.01712770500000239</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GLYTRS_c</t>
+          <t>PRPPS_c</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.001353375035642424</v>
+        <v>0.001407245900219061</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.01312183246083823</v>
+        <v>-0.017221736</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ALATRS_c</t>
+          <t>GLYTRS_c</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.001487340157219598</v>
+        <v>0.001414971671957897</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.01519684405090073</v>
+        <v>-0.018926446</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HSK_c</t>
+          <t>ALATRS_c</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.001722539629077425</v>
+        <v>0.001555033995460205</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.01692958743909878</v>
+        <v>-0.02191936600000001</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ASPK_c</t>
+          <t>HSK_c</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.001918943510251434</v>
+        <v>0.001800938184006368</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.01890706533114114</v>
+        <v>-0.024418611</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CBPS_c</t>
+          <t>ASPK_c</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.002143087682768987</v>
+        <v>0.002006281064438538</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.01939171031057232</v>
+        <v>-0.02727085199999999</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NDPK1_c</t>
+          <t>CBPS_c</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.002198021469041153</v>
+        <v>0.002240626789898321</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.03039749296915716</v>
+        <v>-0.0279698860000008</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MEVK1_c</t>
+          <t>NDPK1_c</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.003445510534200169</v>
+        <v>0.002298060797000541</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.03039749296915716</v>
+        <v>-0.04384422</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PMEVK_c</t>
+          <t>DPMVD_c</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.003445510534200169</v>
+        <v>0.003602327272877128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.03039749296915716</v>
+        <v>-0.04384422</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DPMVD_c</t>
+          <t>PMEVK_c</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.003445510534200169</v>
+        <v>0.003602327272877128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.04549894355991924</v>
+        <v>-0.04384422</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GLNS_c</t>
+          <t>MEVK1_c</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.005157237456712121</v>
+        <v>0.003602327272877128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.04942305274080483</v>
+        <v>-0.06562599400000321</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NDPK2_c</t>
+          <t>GLNS_c</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.005602029385237659</v>
+        <v>0.005391960627783601</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.07226186305733295</v>
+        <v>-0.071285984</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ACCOAC_c</t>
+          <t>NDPK2_c</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.008190774503594669</v>
+        <v>0.005856996528552283</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.08054538721511041</v>
+        <v>-0.10422783960211</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PFK_3_c</t>
+          <t>ACCOAC_c</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.009129699623994661</v>
+        <v>0.008563564118411587</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.09005750735848239</v>
+        <v>-0.1161756885863733</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ATPASEP2e_c</t>
+          <t>PFK_3_c</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.01020788426868954</v>
+        <v>0.009545222869513308</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.126616847122096</v>
+        <v>-0.1298956190000169</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PC_c</t>
+          <t>ATPASEP2e_c</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.01435183095556746</v>
+        <v>0.01067247931314589</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.1823287010699448</v>
+        <v>-0.1826274590105032</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ADK1_c</t>
+          <t>PC_c</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.02066668658698096</v>
+        <v>0.01500503091102511</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.187383628373308</v>
+        <v>-0.262984177350957</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ACITL_c</t>
+          <t>ADK1_c</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.02123965506471122</v>
+        <v>0.02160729679776508</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.2429631586007398</v>
+        <v>-0.27027521760211</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PFK_c</t>
+          <t>ACITL_c</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.02753951199958471</v>
+        <v>0.02220634299232331</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.476</v>
+        <v>-0.3364525228541174</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HEX1_c</t>
+          <t>PFK_c</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0539538907351133</v>
+        <v>0.02764360043594577</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1.189</v>
+        <v>-0.6725762470268664</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ATPM_c</t>
+          <t>HEX1_c</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.1347713783278355</v>
+        <v>0.05526018612611252</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-5.665016557457797</v>
+        <v>-1.189</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>ATPM_c</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.09769057648763978</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-8.171010434999999</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>BIOMASS_RT_CLIM</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>0.6421211856169867</v>
+      <c r="C96" t="n">
+        <v>0.6713462740804627</v>
       </c>
     </row>
   </sheetData>
@@ -4173,7 +4199,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43.03317375319642</v>
+        <v>54.91852787714817</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4181,12 +4207,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8040134139590485</v>
+        <v>0.8037826030427163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.571854479789585</v>
+        <v>5.848613532195906</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4194,12 +4220,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08541857380776058</v>
+        <v>0.08559977826818975</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.229565033071037</v>
+        <v>5.409393730195927</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4207,12 +4233,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07902338417576436</v>
+        <v>0.07917139700223177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.659427826602318</v>
+        <v>2.111438839211538</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4220,12 +4246,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0310040398074537</v>
+        <v>0.0309028277331725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02893388056235328</v>
+        <v>0.03712744699998941</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4233,12 +4259,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0005405882499729193</v>
+        <v>0.0005433939536897077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.162716947432107e-07</v>
+        <v>-7.907890071932096e-07</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4246,12 +4272,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.151415677724707e-08</v>
+        <v>1.157391633077274e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.807879459224881e-06</v>
+        <v>-8.735751267782552e-06</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4259,12 +4285,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.271955082194352e-07</v>
+        <v>1.278556648360872e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.255365958924904e-05</v>
+        <v>-1.610863534363636e-05</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4272,12 +4298,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.345472068111675e-07</v>
+        <v>2.35764528811443e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-3.009999999981083e-05</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4285,12 +4311,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.38266232636952e-07</v>
+        <v>4.405408754865929e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-3.009999999981083e-05</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4298,12 +4324,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.38266232636952e-07</v>
+        <v>4.405408754865929e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-3.009999999981083e-05</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4311,12 +4337,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.38266232636952e-07</v>
+        <v>4.405408754865929e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.34573038357111e-05</v>
+        <v>-3.009999999981083e-05</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4324,103 +4350,103 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.38266232636952e-07</v>
+        <v>4.405408754865929e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.345730383579436e-05</v>
+        <v>-3.009999999999818e-05</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NADHK1_c</t>
+          <t>RBFK_c</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.382662326385077e-07</v>
+        <v>4.40540875489335e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.345730383583209e-05</v>
+        <v>-3.009999999999818e-05</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DHFS_1_c</t>
+          <t>AFAT_c</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.382662326392127e-07</v>
+        <v>4.40540875489335e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-3.01e-05</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RBFK_c</t>
+          <t>HMPK1_c</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.382662326393208e-07</v>
+        <v>4.405408754893615e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-3.01e-05</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HMPK1_c</t>
+          <t>PMPK_c</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.382662326393208e-07</v>
+        <v>4.405408754893615e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-3.01e-05</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AFAT_c</t>
+          <t>TMPK_c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.382662326393208e-07</v>
+        <v>4.405408754893615e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-3.010000000000512e-05</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PMPK_c</t>
+          <t>DHFS_1_c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.382662326393208e-07</v>
+        <v>4.405408754894365e-07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-2.345730383583788e-05</v>
+        <v>-3.01000000003937e-05</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TMPK_c</t>
+          <t>NADHK1_c</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.382662326393208e-07</v>
+        <v>4.405408754951237e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.54436725656703e-05</v>
+        <v>-3.264887344199422e-05</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4428,12 +4454,12 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.753786964565042e-07</v>
+        <v>4.778459564743354e-07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.977205401179438e-05</v>
+        <v>-3.820297643866031e-05</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4441,12 +4467,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.562483242319069e-07</v>
+        <v>5.591353052022214e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-4.69146076720146e-05</v>
+        <v>-6.020000000045087e-05</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4454,12 +4480,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8.765324652849723e-07</v>
+        <v>8.810817509853219e-07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.69146076720146e-05</v>
+        <v>-6.020000000045087e-05</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4467,12 +4493,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.765324652849723e-07</v>
+        <v>8.810817509853219e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-6.250221973213137e-05</v>
+        <v>-8.020174983038299e-05</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4480,12 +4506,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.167764742499776e-06</v>
+        <v>1.17382555103175e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-9.375088447123207e-05</v>
+        <v>-0.0001202994872016283</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4493,12 +4519,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.751601430043183e-06</v>
+        <v>1.760692405738424e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.000107931425087187</v>
+        <v>-0.0001384957076849097</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4506,12 +4532,12 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.016544586172168e-06</v>
+        <v>2.02701064169531e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.0001208607019363881</v>
+        <v>-0.0001550863284947231</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4519,12 +4545,12 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.258109665224135e-06</v>
+        <v>2.269829466162659e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.0006076646895116209</v>
+        <v>-0.0007797446493554553</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4532,12 +4558,12 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.135334717254763e-05</v>
+        <v>1.141227210914277e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.001298361767313627</v>
+        <v>-0.001666035</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4545,12 +4571,12 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.425803597658641e-05</v>
+        <v>2.438393745833616e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.001664295707152698</v>
+        <v>-0.002135595</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4558,12 +4584,12 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.109498920575981e-05</v>
+        <v>3.125637511597019e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.001664295707152698</v>
+        <v>-0.002135595</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4571,12 +4597,12 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.109498920575981e-05</v>
+        <v>3.125637511597019e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.001664295707152698</v>
+        <v>-0.002135595</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4584,12 +4610,12 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.109498920575981e-05</v>
+        <v>3.125637511597019e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.001664295707152698</v>
+        <v>-0.002135595</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4597,12 +4623,12 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.109498920575981e-05</v>
+        <v>3.125637511597019e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.002597661826780687</v>
+        <v>-0.003333274</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4610,12 +4636,12 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.853360260247839e-05</v>
+        <v>4.87854965516919e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.002597661826780687</v>
+        <v>-0.003333274</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4623,12 +4649,12 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.853360260247839e-05</v>
+        <v>4.87854965516919e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.006028057939733618</v>
+        <v>-0.007735097999999999</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4636,12 +4662,12 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0001126256564636527</v>
+        <v>0.0001132101941832561</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.01057220683881213</v>
+        <v>-0.01356607</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4649,12 +4675,12 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0001975265910505419</v>
+        <v>0.0001985517725830552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.01194094051763314</v>
+        <v>-0.01532240499999981</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4662,12 +4688,12 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0002230994257250438</v>
+        <v>0.0002242573326678568</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.01194094051763314</v>
+        <v>-0.01532240499999981</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4675,12 +4701,12 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0002230994257250438</v>
+        <v>0.0002242573326678568</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.01716464750883601</v>
+        <v>-0.02202537400000001</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4688,12 +4714,12 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0003206969330714965</v>
+        <v>0.0003223613802305856</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.01716464750883601</v>
+        <v>-0.02202537400000001</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4701,12 +4727,12 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0003206969330714965</v>
+        <v>0.0003223613802305856</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.01789839197282102</v>
+        <v>-0.022966902</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4714,12 +4740,12 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0003344059008284545</v>
+        <v>0.0003361414988158926</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.01789839197282102</v>
+        <v>-0.022966902</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4727,12 +4753,12 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0003344059008284545</v>
+        <v>0.0003361414988158926</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.01817659559631406</v>
+        <v>-0.023323888</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4740,12 +4766,12 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0003396037383475569</v>
+        <v>0.0003413663135991965</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.01914209822219715</v>
+        <v>-0.024562804</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4753,12 +4779,12 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0003576427764829914</v>
+        <v>0.0003594989760343386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.02842438792303876</v>
+        <v>-0.03647367499998921</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4766,12 +4792,12 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0005310691073999909</v>
+        <v>0.0005338254058740759</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.02842438792303876</v>
+        <v>-0.03647367499998921</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4779,12 +4805,12 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0005310691073999909</v>
+        <v>0.0005338254058740759</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.0284478452268746</v>
+        <v>-0.03650377499998921</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4792,12 +4818,12 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0005315073736326303</v>
+        <v>0.0005342659467495653</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.0284478452268746</v>
+        <v>-0.03650377499998921</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4805,12 +4831,12 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0005315073736326303</v>
+        <v>0.0005342659467495653</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.0284478452268746</v>
+        <v>-0.03650377499998921</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4818,12 +4844,12 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0005315073736326303</v>
+        <v>0.0005342659467495653</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.03311537954416743</v>
+        <v>-0.042493073</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4831,12 +4857,12 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0006187135886039088</v>
+        <v>0.0006219247701545963</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.03486951672501137</v>
+        <v>-0.044743951</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4844,12 +4870,12 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0006514871374806768</v>
+        <v>0.0006548684168236908</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.03579678394564204</v>
+        <v>-0.04593380399999999</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4857,12 +4883,12 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0006688118016569091</v>
+        <v>0.0006722829976317852</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.03579678394564204</v>
+        <v>-0.04593380399999999</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4870,12 +4896,12 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0006688118016569091</v>
+        <v>0.0006722829976317852</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.03624481844890642</v>
+        <v>-0.04650871399999981</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4883,12 +4909,12 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0006771826867003178</v>
+        <v>0.0006806973283536293</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.03913546200059685</v>
+        <v>-0.050217937</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4896,12 +4922,12 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0007311902345484638</v>
+        <v>0.0007349851804401861</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.04303031272949936</v>
+        <v>-0.055215741</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4909,12 +4935,12 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0008039599598158964</v>
+        <v>0.0008081325874064396</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.04303031272949936</v>
+        <v>-0.055215741</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4922,12 +4948,12 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0008039599598158964</v>
+        <v>0.0008081325874064396</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.04303031272949936</v>
+        <v>-0.055215741</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4935,12 +4961,12 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0008039599598158964</v>
+        <v>0.0008081325874064396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.0439241500585196</v>
+        <v>-0.05636269735064436</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4948,12 +4974,12 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.0008206600341945894</v>
+        <v>0.0008249193367373682</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.04942923064287758</v>
+        <v>-0.06342671999999999</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4961,12 +4987,12 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0009235146054175768</v>
+        <v>0.0009283077328311824</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.05165509420386024</v>
+        <v>-0.066282909</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4974,12 +5000,12 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.000965101688232722</v>
+        <v>0.0009701106565063681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.05302969220864034</v>
+        <v>-0.06804676899999999</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4987,12 +5013,12 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0009907840894653863</v>
+        <v>0.0009959263518100445</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.05310006412014773</v>
+        <v>-0.06813706899999981</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5000,12 +5026,12 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0009920988881633019</v>
+        <v>0.0009972479744365101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.05462267771213209</v>
+        <v>-0.07009086</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5013,12 +5039,12 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.001020546749323923</v>
+        <v>0.001025843482664527</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.05914454217256689</v>
+        <v>-0.07589323700000045</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5026,12 +5052,12 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.00110503133098981</v>
+        <v>0.001110766547232618</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.06092870470232039</v>
+        <v>-0.078182643</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5039,12 +5065,12 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.001138365860644351</v>
+        <v>0.001144274086222332</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.06092870470232039</v>
+        <v>-0.078182643</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5052,12 +5078,12 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.001138365860644351</v>
+        <v>0.001144274086222332</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.0679769207858746</v>
+        <v>-0.08722679</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5065,12 +5091,12 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.001270051715565488</v>
+        <v>0.001276643403080621</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.07177911516462557</v>
+        <v>-0.092105699</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5078,12 +5104,12 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.001341090289213995</v>
+        <v>0.001348050673588691</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.07177911516462557</v>
+        <v>-0.092105699</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5091,12 +5117,12 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.001341090289213995</v>
+        <v>0.001348050673588691</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.07428294777606288</v>
+        <v>-0.09531857299999999</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5104,12 +5130,12 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.001387870826885916</v>
+        <v>0.001395074006638426</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.07495570317402889</v>
+        <v>-0.09618184098971039</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5117,12 +5143,12 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.001400440301017204</v>
+        <v>0.001407708718796863</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.0819938326929423</v>
+        <v>-0.1052130449999899</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5130,12 +5156,12 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.001531937702878419</v>
+        <v>0.001539888603229141</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.08244397835358926</v>
+        <v>-0.105790664</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5143,12 +5169,12 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.001540348031883463</v>
+        <v>0.001548342582629929</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.09060477435807725</v>
+        <v>-0.116262454</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5156,12 +5182,12 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.001692820854218682</v>
+        <v>0.001701606753212678</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.1049324955410072</v>
+        <v>-0.1346475340000002</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5169,12 +5195,12 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.001960513869114782</v>
+        <v>0.001970689119961583</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.1168968933624761</v>
+        <v>-0.150000039</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5182,12 +5208,12 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.002184051561072465</v>
+        <v>0.002195386993504929</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.130551155352279</v>
+        <v>-0.167520948</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5195,12 +5221,12 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.002439161952429488</v>
+        <v>0.002451821431718532</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.1338975743174618</v>
+        <v>-0.1718150139999892</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5208,12 +5234,12 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.002501685013177106</v>
+        <v>0.002514668993015686</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.2098912632623102</v>
+        <v>-0.2693287799999999</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5221,12 +5247,12 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.003921518596410115</v>
+        <v>0.003941871645703708</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.2098912632623102</v>
+        <v>-0.2693287799999999</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5234,12 +5260,12 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.003921518596410115</v>
+        <v>0.003941871645703708</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.2098912632623102</v>
+        <v>-0.2693287799999999</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5247,12 +5273,12 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.003921518596410115</v>
+        <v>0.003941871645703708</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.314165077711532</v>
+        <v>-0.4031311059999793</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5260,12 +5286,12 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.005869725949710982</v>
+        <v>0.005900190377881245</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.3412606093723832</v>
+        <v>-0.437899616</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5273,12 +5299,12 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.006375967275034061</v>
+        <v>0.00640905914315931</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.4989600207550347</v>
+        <v>-0.6402567289843898</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5286,12 +5312,12 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.009322355632357582</v>
+        <v>0.009370739532383321</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.5561568215533489</v>
+        <v>-0.7136506584716189</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5299,12 +5325,12 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0103909961965217</v>
+        <v>0.0104449264410846</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.6218369391481815</v>
+        <v>-0.7979302309998793</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5312,12 +5338,12 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.0116181354235635</v>
+        <v>0.01167843463601712</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.8742750600321221</v>
+        <v>-1.12185439098971</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5325,7 +5351,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.01633458131131837</v>
+        <v>0.01641935932153459</v>
       </c>
     </row>
     <row r="91">
@@ -5338,12 +5364,12 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.0222147674879848</v>
+        <v>0.01740209637730402</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1.258959133089553</v>
+        <v>-1.61547423229869</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5351,12 +5377,12 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.02352185401047883</v>
+        <v>0.02364393463878302</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-1.293862836446917</v>
+        <v>-1.660262050984389</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5364,12 +5390,12 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.02417397987637742</v>
+        <v>0.02429944509908391</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1.49090687253885</v>
+        <v>-1.904150603890525</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5377,12 +5403,12 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.02785546637484369</v>
+        <v>0.0278689758837717</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-3.1</v>
+        <v>-3.968910623833752</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5390,12 +5416,12 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.05791907419070889</v>
+        <v>0.0580886166432807</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-39.11630090195854</v>
+        <v>-50.193349815</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5403,7 +5429,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7308322367763321</v>
+        <v>0.7346253246260426</v>
       </c>
     </row>
   </sheetData>
